--- a/RT database.xlsx
+++ b/RT database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-660" windowWidth="25600" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Response db" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -67,18 +67,6 @@
     <t>"Thank you for taking the time out of your busy schedule to share your opinion with other community members"</t>
   </si>
   <si>
-    <t>"WOW! We can't begin to tell you how nice it is to hear words of encouragement appreciation and praise"</t>
-  </si>
-  <si>
-    <t>"Your kind words are much appreciated. "</t>
-  </si>
-  <si>
-    <t>"I’m so pleased you had a pleasant experience. "</t>
-  </si>
-  <si>
-    <t>"We work really hard, and it is great to see those efforts pay off. "</t>
-  </si>
-  <si>
     <t>"We are beaming with pride knowing that we hit the mark and delivered on everthing that we promised.  "</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>"We sincerely look forward to serving you time after time. "</t>
   </si>
   <si>
-    <t>"Please visit us again. It will be our honor and delight to serve you "</t>
-  </si>
-  <si>
     <t>"Until Next Time,"</t>
   </si>
   <si>
@@ -136,48 +121,6 @@
     <t>"Thank you so much for taking the time to write such a nice review"</t>
   </si>
   <si>
-    <t>"Hello "</t>
-  </si>
-  <si>
-    <t>"Thank you for getting in touch "</t>
-  </si>
-  <si>
-    <t>"We appreciate you reaching out "</t>
-  </si>
-  <si>
-    <t>"I'm glad you wrote "</t>
-  </si>
-  <si>
-    <t>"I’m deeply sorry for your negative experience. "</t>
-  </si>
-  <si>
-    <t>"We regret to hear of your unfortunate experience. "</t>
-  </si>
-  <si>
-    <t>"We always strive to create the best customer experience, "</t>
-  </si>
-  <si>
-    <t>"Our goal is to satisfy every customer, "</t>
-  </si>
-  <si>
-    <t>"We work really hard, "</t>
-  </si>
-  <si>
-    <t>"We work hard to ensure customer happiness, "</t>
-  </si>
-  <si>
-    <t>"but it looks like we dropped the ball this time. "</t>
-  </si>
-  <si>
-    <t>"but in this case, we blew it! "</t>
-  </si>
-  <si>
-    <t>"but sometimes we do not succeed in 100% customer satisfaction. "</t>
-  </si>
-  <si>
-    <t>"but mistakes were made. "</t>
-  </si>
-  <si>
     <t>"We want to resolve this issue to your satisfaction. "</t>
   </si>
   <si>
@@ -262,27 +205,6 @@
     <t>[5]</t>
   </si>
   <si>
-    <t>["Thank you so much", "Thank you for the great review", "We are are so grateful for your feedback", "Thank you for taking the time out of your busy schedule to share your opinion with other community members", "WOW! We can't begin to tell you how nice it is to hear words of encouragement appreciation and praise", "Thank you so much for taking the time to write such a nice review"]</t>
-  </si>
-  <si>
-    <t>["Your kind words are much appreciated. ", "I’m so pleased you had a pleasant experience. ", "We work really hard, and it is great to see those efforts pay off. ", "We are beaming with pride knowing that we hit the mark and delivered on everthing that we promised.  ", "We are constantly hard at work doing everything we can to deliver high quality experiences to every one of our customers. ", "We want every single customer that walks through our doors to experience the same level of service. "]</t>
-  </si>
-  <si>
-    <t>["Your opinion is valuable to us and helps us shape everything that we do ", "We are so glad we were able to help you out. Helping our customers is what we love best. ", "It is thanks to customers like you taking the time to tell us what we are doing right that we are able to constantly strive for excellence. "]</t>
-  </si>
-  <si>
-    <t>["We can't wait for the next opportunity to serve you; and will do everthing in our power to once again allow you to experience the best that we have to offer. ", "We sincerely look forward to serving you time after time. ", "Please visit us again. It will be our honor and delight to serve you "]</t>
-  </si>
-  <si>
-    <t>["Until Next Time,", "Warm Regards,", "Sincerely,"]</t>
-  </si>
-  <si>
-    <t>["I’m deeply sorry for your negative experience. ", "We regret to hear of your unfortunate experience. "]</t>
-  </si>
-  <si>
-    <t>["We always strive to create the best customer experience, ", "Our goal is to satisfy every customer, ", "We work really hard, ", "We work hard to ensure customer happiness, "]</t>
-  </si>
-  <si>
     <t>["but it looks like we dropped the ball this time. ", "but in this case, we blew it! ", "but sometimes we do not succeed in 100% customer satisfaction. ", "but mistakes were made. "]</t>
   </si>
   <si>
@@ -310,15 +232,6 @@
     <t>["Sincerely,", "Best Regards,", "Kindest Regards,"]</t>
   </si>
   <si>
-    <t>["By sharing with us not only do you encourage our team; you give us the necessary information to constantly strive to try our best. ", "Customers just like you make doing what we do a true pleasure. Everyone looks forward to serving you and yours on your next visit. ", "We may not be as large as other businesses but we are committed to our customers as our priority #1! "]</t>
-  </si>
-  <si>
-    <t>["Your opinion also empowers other people in the community to connect with us and enjoy all the services we currently provide. ", "Our brand promise is all about delivering seamless experiences that exceed customer expectations! ", "Thank you once again for giving us a pat on the back. We value your patronage and friendship. "]</t>
-  </si>
-  <si>
-    <t>["Hello", "Thank you for getting in touch", "We appreciate you reaching out", "I'm glad you wrote"]</t>
-  </si>
-  <si>
     <t>["Your satisfaction is our priority and we'd like to follow up with you directly. Please contact me directly at ", "Please allow us the opportunity to win back your business. You can email me directly at "]</t>
   </si>
   <si>
@@ -436,9 +349,6 @@
     <t>ta neut</t>
   </si>
   <si>
-    <t>["Thanks for the comments. ", "Thanks for sharing. "]</t>
-  </si>
-  <si>
     <t>["It's important to us. ", "We value your feedback. "]</t>
   </si>
   <si>
@@ -548,13 +458,554 @@
   </si>
   <si>
     <t xml:space="preserve"> ["Best,", "Cheers!"]</t>
+  </si>
+  <si>
+    <t>["Best,", "Thanks"]</t>
+  </si>
+  <si>
+    <t>["Thanks for the comments, ", "Thanks for sharing, "]</t>
+  </si>
+  <si>
+    <t>7/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Thank you for taking the time out of your busy schedule to review our business"</t>
+  </si>
+  <si>
+    <t>"We really appreciate that you took the time to share details about your recent visit to our location"</t>
+  </si>
+  <si>
+    <t>"We are thankful for your time and your willingness to write a review to let us know how we are doing"</t>
+  </si>
+  <si>
+    <t>"Getting reviews like yours ranks among our favorite things"</t>
+  </si>
+  <si>
+    <t>"Thank you for giving us such high marks"</t>
+  </si>
+  <si>
+    <t>"We wanted to take a moment to thank you for telling us more about your experience with us"</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time to let us know how we are doing"</t>
+  </si>
+  <si>
+    <t>"We are extremely grateful for your review"</t>
+  </si>
+  <si>
+    <t>"Words do not suffice to express how grateful we are for your review"</t>
+  </si>
+  <si>
+    <t>"Thank you for giving us a try"</t>
+  </si>
+  <si>
+    <t>"We are so delighted you took the time to try us"</t>
+  </si>
+  <si>
+    <t>"We are ever so grateful for your review"</t>
+  </si>
+  <si>
+    <t>"WOW! Reviews like this fuel our hearts and make us try better every single day"</t>
+  </si>
+  <si>
+    <t>"We are so glad to hear you had a superior experience when visiting our shop"</t>
+  </si>
+  <si>
+    <t>"Everyone here takes pride on what we do and it is through feedback like yours full of affirmations and encouragement that we renew our commitment to always trying our best. "</t>
+  </si>
+  <si>
+    <t>"Thank you so much for taking a few moments to let us know how we are doing. "</t>
+  </si>
+  <si>
+    <t>"We are so delighted to hear that your purchase exceeded your expectations. "</t>
+  </si>
+  <si>
+    <t>"Businesses are mainly about people connecting to people and knowing that our team is on the ball makes us proud. "</t>
+  </si>
+  <si>
+    <t>"Reviews highlighting the commitment of our people to serve every customer with passion reaffirm that we are indeed living up to our mission statement. "</t>
+  </si>
+  <si>
+    <t>"We know that you have options and we are tremendously happy you picked us. "</t>
+  </si>
+  <si>
+    <t>"We are even more delighted that we were able to be all that you expected us to be. "</t>
+  </si>
+  <si>
+    <t>"Thank you for your kind words and for giving us a high five for all that we do. It is truly nice to know that our efforts are paying off. "</t>
+  </si>
+  <si>
+    <t>"We are so happy to hear that we exceeded your expectations in more ways that we could have ever imagined. "</t>
+  </si>
+  <si>
+    <t>"Reading your review was of great encouragement to me personally reminding me why we do what we do. "</t>
+  </si>
+  <si>
+    <t>"We love what we do, and getting word that we are exactly what you were looking for makes us beyond excited. "</t>
+  </si>
+  <si>
+    <t>"Your thoughtful and descriptive review reaffirms that we are heading in the right direction and it helps other community members know what we are all about. "</t>
+  </si>
+  <si>
+    <t>"It is good to know that our team exceeded your expectations and made your experience memorable. "</t>
+  </si>
+  <si>
+    <t>"We are so glad our efforts are paying off and you had the opportunity to experience superior service. "</t>
+  </si>
+  <si>
+    <t>"It is great to know that we were able to provide you with the highest levels of service. "</t>
+  </si>
+  <si>
+    <t>"As such, we are delighted to read how our staff delivered above and beyond your expectations. "</t>
+  </si>
+  <si>
+    <t>"It is good to hear that we were all you expected and more. "</t>
+  </si>
+  <si>
+    <t>"We are so glad you found us to be a strong option among many excellent businesses in town. "</t>
+  </si>
+  <si>
+    <t>"Your review is valuable to us as we shape our customer strategy and useful to other community members trying to decide if we are a good fit for their needs. "</t>
+  </si>
+  <si>
+    <t>"Your review makes a difference to us and it is incredibly helpful as a way to introduce others to what we do here. "</t>
+  </si>
+  <si>
+    <t>"It is because of feedback like yours that we are able to confirm that we are heading in the right direction. "</t>
+  </si>
+  <si>
+    <t>"Please know that we are dedicated to innovation and you can always count on us staying ahead of our competitors "</t>
+  </si>
+  <si>
+    <t>"Our goal is to be the leaders in the industry and have everyone walk out of our shop with the sense that we are part of their family. "</t>
+  </si>
+  <si>
+    <t>"We realize our customers are busy and knowing that they took the time to voice their opinion and give us such high accolades validates every effort we make to go the extra mile. "</t>
+  </si>
+  <si>
+    <t>"We look forward to serving you in a future visit and hope that you give us the opportunity to introduce you to our latest offerings. "</t>
+  </si>
+  <si>
+    <t>"Your words of appreciation make a world of difference and set the tone for our employee's morale. "</t>
+  </si>
+  <si>
+    <t>"Your comments about our team fill us with pride and equip us to provide clear and specific examples of what excellence looks like. "</t>
+  </si>
+  <si>
+    <t>"We will pass along your comments to our team. It is words just like these that keep us going. "</t>
+  </si>
+  <si>
+    <t>"Our objective is that every customers that walks through our doors is able to have a similar experience. "</t>
+  </si>
+  <si>
+    <t>"We are glad to know your experience was positive in every possible way. "</t>
+  </si>
+  <si>
+    <t>"We will do everything in our power to make certain every single visit is equally delightful. "</t>
+  </si>
+  <si>
+    <t>"Online feedback is precious to us and we are thankful you took the time to let us know about your experience with us. "</t>
+  </si>
+  <si>
+    <t>"We are hard at work to make our business the business of choice for those who appreciate superior quality and a passion for excellence. "</t>
+  </si>
+  <si>
+    <t>"We recognize our customers are busy and are beyond thankful for their willigness to spend time giving us feedback. "</t>
+  </si>
+  <si>
+    <t>"We are honored by your choice to do business with us, and look forward to your next visit. "</t>
+  </si>
+  <si>
+    <t>"We will be sharing your review with the team as a way to encourage them to continue to strive for excellence in customer service. "</t>
+  </si>
+  <si>
+    <t>"We know that you have options and are very honored that you selected us and proud to have served you. "</t>
+  </si>
+  <si>
+    <t>"Please visit us again. "</t>
+  </si>
+  <si>
+    <t>"Please remember that we remain committed to be the best in the industry, that we may gain your business time after time. "</t>
+  </si>
+  <si>
+    <t>"We will be sure to share your review with our team on our next staff meeting. "</t>
+  </si>
+  <si>
+    <t>"We hope you give us the opportunity to connect with you again. "</t>
+  </si>
+  <si>
+    <t>"Know that are thankful for the trust you have placed on us. Know that we are working extra hard to always push ourselves to the next level. "</t>
+  </si>
+  <si>
+    <t>"We hope you make us part of your traditions and we have the privilege to serve you for many years to come. "</t>
+  </si>
+  <si>
+    <t>"Please don't make it a once in a lifetime! "</t>
+  </si>
+  <si>
+    <t>"We hope to become one of your favorites. Do let us know what we need to do to earn your continued loyalty. "</t>
+  </si>
+  <si>
+    <t>"We invite you to join us again. You can count on us to pour our hearts out and try our best to make your experience one worth bragging about. "</t>
+  </si>
+  <si>
+    <t>"We hope you give us the opportunity to serve you again. Rest assured we will do whatever it takes to deliver on our promise. "</t>
+  </si>
+  <si>
+    <t>"Please visit us again. It will be our honor and delight to serve you. "</t>
+  </si>
+  <si>
+    <t>"We will do whatever it takes to once again deliver an experience worth bragging about. "</t>
+  </si>
+  <si>
+    <t>"We look forward to your next visit. It was truly a pleasure to serve you. "</t>
+  </si>
+  <si>
+    <t>"Thank you for taking time to share your opinion with others. Please come again. "</t>
+  </si>
+  <si>
+    <t>"It will be our pleasure to serve you. "</t>
+  </si>
+  <si>
+    <t>"We want to earn your business each and every time and to this end we are constantly looking for better ways to serve you. "</t>
+  </si>
+  <si>
+    <t>"Do allow us the opportunity to serve you again. We will do everything in our power to deliver an even better customer experience. "</t>
+  </si>
+  <si>
+    <t>"We are honored to have had the opportunity to serve you. "</t>
+  </si>
+  <si>
+    <t>"That is our commitment to you. "</t>
+  </si>
+  <si>
+    <t>"Looking forward to your next visit. "</t>
+  </si>
+  <si>
+    <t>"Know that we are here to serve you and will always try our best. "</t>
+  </si>
+  <si>
+    <t>"We really look forward to serving you for many years to come. "</t>
+  </si>
+  <si>
+    <t>"Our goal is to make you a part of our family and make you feel welcome every single time. "</t>
+  </si>
+  <si>
+    <t>"Thank you for your friendship and patronage. "</t>
+  </si>
+  <si>
+    <t>"Know that we are hard at work finding ways to do things better every single time. "</t>
+  </si>
+  <si>
+    <t>"Your friends,"</t>
+  </si>
+  <si>
+    <t>"Respectfully,"</t>
+  </si>
+  <si>
+    <t>"Kindly,"</t>
+  </si>
+  <si>
+    <t>"At your service,"</t>
+  </si>
+  <si>
+    <t>"With Gratitude,"</t>
+  </si>
+  <si>
+    <t>"On behalf of the team,"</t>
+  </si>
+  <si>
+    <t>"On behalf of everyone here,"</t>
+  </si>
+  <si>
+    <t>"With appreciation,"</t>
+  </si>
+  <si>
+    <t>"Please join us again,"</t>
+  </si>
+  <si>
+    <t>"Can't wait to serve you again,"</t>
+  </si>
+  <si>
+    <t>"Looking forward to your next visit,"</t>
+  </si>
+  <si>
+    <t>"WOW! We can't begin to tell you how nice it is to hear words of encouragement, appreciation and praise"</t>
+  </si>
+  <si>
+    <t>"When we first read your review we could not help but smile"</t>
+  </si>
+  <si>
+    <t>"What a wonderful surprise! Your words of encouragement make us feel proud of what we do"</t>
+  </si>
+  <si>
+    <t>["Thank you so much", "Thank you for the great review", "We are are so grateful for your feedback", "Thank you for taking the time out of your busy schedule to share your opinion with other community members", "WOW! We can't begin to tell you how nice it is to hear words of encouragement, appreciation and praise", "Thank you for taking the time out of your busy schedule to review our business", "We really appreciate that you took the time to share details about your recent visit to our location",  "Thank you so much for taking the time to write such a nice review", "When we first read your review we could not help but smile", "We are thankful for your time and your willingness to write a review to let us know how we are doing",  "Getting reviews like yours ranks among our favorite things", "Thank you for giving us such high marks", "We wanted to take a moment to thank you for telling us more about your experience with us", "Thank you for taking the time to let us know how we are doing", "We are extremely grateful for your review", "What a wonderful surprise! Your words of encouragement make us feel proud of what we do", "Words do not suffice to express how grateful we are for your review", "Thank you for giving us a try", "We are so delighted you took the time to try us", "We are ever so grateful for your review", "WOW! Reviews like this fuel our hearts and make us try better every single day", "We are so glad to hear you had a superior experience when visiting our shop"]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>["Everyone here takes pride on what we do and it is through feedback like yours full of affirmations and encouragement that we renew our commitment to always trying our best. ", "Thank you so much for taking a few moments to let us know how we are doing. ", "We are so delighted to hear that your purchase exceeded your expectations. ", "We are beaming with pride knowing that we hit the mark and delivered on everthing that we promised.  ", "We are constantly hard at work doing everything we can to deliver high quality experiences to every one of our customers. ", "We want every single customer that walks through our doors to experience the same level of service. ", "Businesses are mainly about people connecting to people and knowing that our team is on the ball makes us proud. ",  "Reviews highlighting the commitment of our people to serve every customer with passion reaffirm that we are indeed living up to our mission statement. ", "We know that you have options and we are tremendously happy you picked us. ", "We are even more delighted that we were able to be all that you expected us to be. ", "Thank you for your kind words and for giving us a high five for all that we do. It is truly nice to know that our efforts are paying off. "]</t>
+  </si>
+  <si>
+    <t>["Your opinion is valuable to us and helps us shape everything that we do ", "We are so glad we were able to help you out. Helping our customers is what we love best. ", "It is thanks to customers like you taking the time to tell us what we are doing right that we are able to constantly strive for excellence. ", "We are so happy to hear that we exceeded your expectations in more ways that we could have ever imagined. ", "Reading your review was of great encouragement to me personally reminding me why we do what we do. ", "We love what we do, and getting word that we are exactly what you were looking for makes us beyond excited. ", "Your thoughtful and descriptive review reaffirms that we are heading in the right direction and it helps other community members know what we are all about. ", "It is good to know that our team exceeded your expectations and made your experience memorable. ", "We are so glad our efforts are paying off and you had the opportunity to experience superior service. ", "It is great to know that we were able to provide you with the highest levels of service. ", "As such, we are delighted to read how our staff delivered above and beyond your expectations. ", "It is good to hear that we were all you expected and more. ", "We are so glad you found us to be a strong option among many excellent businesses in town. ", "Your review is valuable to us as we shape our customer strategy and useful to other community members trying to decide if we are a good fit for their needs. "]</t>
+  </si>
+  <si>
+    <t>["By sharing with us not only do you encourage our team; you give us the necessary information to constantly strive to try our best. ", "Customers just like you make doing what we do a true pleasure. Everyone looks forward to serving you and yours on your next visit. ", "We may not be as large as other businesses but we are committed to our customers as our priority #1! ", "Your review makes a difference to us and it is incredibly helpful as a way to introduce others to what we do here. ","It is because of feedback like yours that we are able to confirm that we are heading in the right direction. ", "Please know that we are dedicated to innovation and you can always count on us staying ahead of our competitors ", "Our goal is to be the leaders in the industry and have everyone walk out of our shop with the sense that we are part of their family. ",  "We realize our customers are busy and knowing that they took the time to voice their opinion and give us such high accolades validates every effort we make to go the extra mile. ", "We look forward to serving you in a future visit and hope that you give us the opportunity to introduce you to our latest offerings. ", "Your words of appreciation make a world of difference and set the tone for our employee's morale. ", "Your comments about our team fill us with pride and equip us to provide clear and specific examples of what excellence looks like. ", "We will pass along your comments to our team. It is words just like these that keep us going. ", "Our objective is that every customers that walks through our doors is able to have a similar experience. ", "We are glad to know your experience was positive in every possible way. ", "We will do everything in our power to make certain every single visit is equally delightful. ", "Online feedback is precious to us and we are thankful you took the time to let us know about your experience with us. ", "We are hard at work to make our business the business of choice for those who appreciate superior quality and a passion for excellence. ", "We recognize our customers are busy and are beyond thankful for their willigness to spend time giving us feedback. "]</t>
+  </si>
+  <si>
+    <t>"We look forward to your next visit and will once again work hard to earn your endorsement. "</t>
+  </si>
+  <si>
+    <t>"Also, consider joining our mailing list with exclusive promos and discounts for our best customers. "</t>
+  </si>
+  <si>
+    <t>["We can't wait for the next opportunity to serve you; and will do everthing in our power to once again allow you to experience the best that we have to offer. ", "We sincerely look forward to serving you time after time. ", "Please visit us again. It will be our honor and delight to serve you. ", "We will do whatever it takes to once again deliver an experience worth bragging about. ", "We look forward to your next visit. It was truly a pleasure to serve you. ", "Also, consider joining our mailing list with exclusive promos and discounts for our best customers. ", "Thank you for taking time to share your opinion with others. Please come again. ", "It will be our pleasure to serve you. ", "We want to earn your business each and every time and to this end we are constantly looking for better ways to serve you. ", "Do allow us the opportunity to serve you again. We will do everything in our power to deliver an even better customer experience. ", "We are honored to have had the opportunity to serve you. ", "That is our commitment to you. ", "We will do whatever it takes to once again deliver an experience worth bragging about. ", "Looking forward to your next visit. ", "Know that we are here to serve you and will always try our best. ", "We really look forward to serving you for many years to come. ", "Our goal is to make you a part of our family and make you feel welcome every single time. ", "Thank you for your friendship and patronage. ", "Know that we are hard at work finding ways to do things better every single time. "]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">["Until Next Time,", "Warm Regards,", "Sincerely,", "Your friends,", "Respectfully,", "Kindly,", "At your service,", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">"Best,", "With Gratitude,", "On behalf of the team,", "Best Regards,", "On behalf of everyone here,", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> "With appreciation,", "Please join us again,", "Can't wait to serve you again,", "Looking forward to your next visit,"]</t>
+    </r>
+  </si>
+  <si>
+    <t>"Come visit us soon. You can count on every one of us doing our best! "</t>
+  </si>
+  <si>
+    <t>["Your opinion also empowers other people in the community to connect with us and enjoy all the services we currently provide. ", "Our brand promise is all about delivering seamless experiences that exceed customer expectations! ", "Thank you once again for giving us a pat on the back. We value your patronage and friendship. ", "We are honored by your choice to do business with us, and look forward to your next visit. ", "We will be sharing your review with the team as a way to encourage them to continue to strive for excellence in customer service. ", "We know that you have options and are very honored that you selected us and proud to have served you. ", "Please visit us again. ", "Please remember that we remain committed to be the best in the industry, that we may gain your business time after time. ", "We will be sure to share your review with our team on our next staff meeting. ", "Come visit us soon. You can count on every one of us doing our best! ", "We hope you give us the opportunity to connect with you again. ", "We look forward to your next visit and will once again work hard to earn your endorsement. ",  "Know that are thankful for the trust you have placed on us. Know that we are working extra hard to always push ourselves to the next level. ", "We hope you make us part of your traditions and we have the privilege to serve you for many years to come. ", "Please don't make it a once in a lifetime! ", "We hope to become one of your favorites. Do let us know what we need to do to earn your continued loyalty. ", "We invite you to join us again. You can count on us to pour our hearts out and try our best to make your experience one worth bragging about. ", "We hope you give us the opportunity to serve you again. Rest assured we will do whatever it takes to deliver on our promise. "]</t>
+  </si>
+  <si>
+    <t>" Thank you for reaching out to us and letting us know we dropped the ball"</t>
+  </si>
+  <si>
+    <t>"We are truly sorry your experience was not to your satisfaction"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Please allow me to apologize on behalf of everyone here" </t>
+  </si>
+  <si>
+    <t>"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business"</t>
+  </si>
+  <si>
+    <t>"We are sad to hear we did not provide you with the best possible experience"</t>
+  </si>
+  <si>
+    <t>"As the person in charge of staffing and customer service I am very dissapointed that we failed you"</t>
+  </si>
+  <si>
+    <t>"Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you"</t>
+  </si>
+  <si>
+    <t>"On reading your review I cannot help it but feel responsible for having dropped the ball"</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time to point out personnel issues affecting our business"</t>
+  </si>
+  <si>
+    <t>"It seems we have failed to serve you the way you deserve. That is unacceptable"</t>
+  </si>
+  <si>
+    <t>"We are sad to hear things did not go as expected"</t>
+  </si>
+  <si>
+    <t>"From what we can see your experience was not reflective of our brand. We are really sorry for that"</t>
+  </si>
+  <si>
+    <t>"It saddens me to hear about your experience"</t>
+  </si>
+  <si>
+    <t>"I wanted to personally thank you for taking the time to provide feedback about your experience with us"</t>
+  </si>
+  <si>
+    <t>"It seems we had a disconnect and clearly dropped the ball"</t>
+  </si>
+  <si>
+    <t>"Communications are essential to a good experience and somehow we managed to fail you in this area"</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time out of your busy day to let us know about this"</t>
+  </si>
+  <si>
+    <t>[" Thank you for reaching out to us and letting us know we dropped the ball", "We are truly sorry your experience was not to your satisfaction", "Please allow me to apologize on behalf of everyone here" ,"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business", "We are sad to hear we did not provide you with the best possible experience", "As the person in charge of staffing and customer service I am very dissapointed that we failed you", "Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you", "On reading your review I cannot help it but feel responsible for having dropped the ball", "Thank you for taking the time to point out personnel issues affecting our business", "It seems we have failed to serve you the way you deserve. That is unacceptable", "We are sad to hear things did not go as expected", "From what we can see your experience was not reflective of our brand. We are really sorry for that", "It saddens me to hear about your experience", "I wanted to personally thank you for taking the time to provide feedback about your experience with us", "It seems we had a disconnect and clearly dropped the ball", "Communications are essential to a good experience and somehow we managed to fail you in this area",  "Thank you for taking the time out of your busy day to let us know about this" ]</t>
+  </si>
+  <si>
+    <t>"Our goal is customer satisfaction and we clearly failed to deliver. "</t>
+  </si>
+  <si>
+    <t>"We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. "</t>
+  </si>
+  <si>
+    <t>"We love what we do and we want for every customer to have the best possible experience. "</t>
+  </si>
+  <si>
+    <t>"Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. "</t>
+  </si>
+  <si>
+    <t>"We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. "</t>
+  </si>
+  <si>
+    <t>"Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. "</t>
+  </si>
+  <si>
+    <t>"Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. "</t>
+  </si>
+  <si>
+    <t>"We want to be #1 when it comes to customer service and clearly we are missing the mark."</t>
+  </si>
+  <si>
+    <t>"We can only address problems if we are aware of how our interactions are affecting the customer experience. "</t>
+  </si>
+  <si>
+    <t>"Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. "</t>
+  </si>
+  <si>
+    <t>"We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. "</t>
+  </si>
+  <si>
+    <t>"As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. "</t>
+  </si>
+  <si>
+    <t>"Clearly we did not deliver as promised. We are very sorry to have failed you. "</t>
+  </si>
+  <si>
+    <t>"Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "</t>
+  </si>
+  <si>
+    <t>["Our goal is customer satisfaction and we clearly failed to deliver. ", "We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. ", "We love what we do and we want for every customer to have the best possible experience. ", "Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. ", "We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. ", "Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. ", "Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. ", "We want to be #1 when it comes to customer service and clearly we are missing the mark.", "We can only address problems if we are aware of how our interactions are affecting the customer experience. ", "Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. ", "We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. ", From the moment you walk into our business it is our responsibility to give you the best possible experience and deliver what we promised. ", "As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. ", "Clearly we did not deliver as promised. We are very sorry to have failed you. ", "Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "]</t>
+  </si>
+  <si>
+    <t>"Please know that your situation was an exception and we won't allow for repeats."</t>
+  </si>
+  <si>
+    <t>"This is not the way we do business and we intend to make amends. "</t>
+  </si>
+  <si>
+    <t>"It is more than clear that we failed you in more ways than one. "</t>
+  </si>
+  <si>
+    <t>"We are so sorry we did not resolve the issue on the spot. That is our policy and we failed to stick to it. "</t>
+  </si>
+  <si>
+    <t>"You deserve better and we intend to right this wrong.  "</t>
+  </si>
+  <si>
+    <t>"Please receive my most sincere apologies for this matter and know that I am looking into the issue. "</t>
+  </si>
+  <si>
+    <t>"We have addressed the issue internally and have rolled out training to ensure it does not happen again. "</t>
+  </si>
+  <si>
+    <t>"Apologies are not enough. I take full responsibility for the actions and attitudes of our staff and I have already addressed the issue internally. "</t>
+  </si>
+  <si>
+    <t>"What you experienced is not acceptable and we are working to correct it ASAP. "</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time to bring up these issues via your review. We are looking into it and have spoken to the staff members involved. "</t>
+  </si>
+  <si>
+    <t>"We will take your feedback into account as we work toward improving the way we do business. "</t>
+  </si>
+  <si>
+    <t>"Clearly this time around that was not the case and for that we are sincerely sorry. "</t>
+  </si>
+  <si>
+    <t>"Rest assured we will address the matter internally, but we also want to make sure we have done everything in our hands to take care of you. "</t>
+  </si>
+  <si>
+    <t>"We have implemented corrective measures regarding the issues you escalated. "</t>
+  </si>
+  <si>
+    <t>"We are looking into the root cause of the problem that we may correct it company-wide. "</t>
+  </si>
+  <si>
+    <t>"Thank you for letting us know about this problem. We really want to fix it. "</t>
+  </si>
+  <si>
+    <t>"Our policy is to deliver 100% customer satisfaction. Please give us a chance to fix it. "</t>
+  </si>
+  <si>
+    <t>["Please know that your situation was an exception and we won't allow for repeat. ", "This is not the way we do business and we intend to make amends. ", "It is more than clear that we failed you in more ways than one. ", "We are so sorry we did not resolve the issue on the spot. That is our policy and we failed to stick to it. ", "You deserve better and we intend to right this wrong.  ", "Please receive my most sincere apologies for this matter and know that I am looking into the issue. ", "We have addressed the issue internally and have rolled out training to ensure it does not happen again. ", "Apologies are not enough. I take full responsibility for the actions and attitudes of our staff and I have already addressed the issue internally. ", "What you experienced is not acceptable and we are working to correct it ASAP. ", "Thank you for taking the time to bring up these issues via your review. We are looking into it and have spoken to the staff members involved. ", "We will take your feedback into account as we work toward improving the way we do business. ", "Clearly this time around that was not the case and for that we are sincerely sorry. ", "Rest assured we will address the matter internally, but we also want to make sure we have done everything in our hands to take care of you. ", "We have implemented corrective measures regarding the issues you escalated. ", "We are looking into the root cause of the problem that we may correct it company-wide. ", "Thank you for letting us know about this problem. We really want to fix it. ", "Our policy is to deliver 100% customer satisfaction. Please give us a chance to fix it. "]</t>
+  </si>
+  <si>
+    <t>"It is thanks to feedback like yours that we can tackle issues that may impact our most valuable asset; our customers. "</t>
+  </si>
+  <si>
+    <t>"Everyone should receive what they paid for. That is our commitment to every one of our customers. "</t>
+  </si>
+  <si>
+    <t>"As you can see on other reviews, we are known for taking ownership and caring deeply for our customers. "</t>
+  </si>
+  <si>
+    <t>"In the future please don't hesitate to ask for our manager on duty. He will take care of you right away. "</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,6 +1051,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -624,7 +1101,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="671">
+  <cellStyleXfs count="1187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1296,10 +1773,530 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1326,8 +2323,26 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="671">
+  <cellStyles count="1187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1663,6 +2678,264 @@
     <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1998,6 +3271,264 @@
     <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2327,1604 +3858,2577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="I28" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="112" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="110.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="106.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="150.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="13.6640625" style="2"/>
+    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="110.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="102.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="112" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="110.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="106.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="104.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.5" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="13.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="32">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30">
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="32">
+      <c r="C8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30">
+      <c r="C9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="32">
+      <c r="C10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="32">
+      <c r="C11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30">
+      <c r="C12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
+      <c r="C14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30">
+      <c r="C15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="32">
+      <c r="C17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30">
+      <c r="C18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="C19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="C20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="C21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="C22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="C23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="255">
+      <c r="D25" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1">
+      <c r="D27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="R27" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="32">
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="32">
+      <c r="C32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" ht="32">
+      <c r="C33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18">
+      <c r="C34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" ht="30">
+      <c r="C35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" ht="32">
+      <c r="C36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18">
+      <c r="C37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" ht="30">
+      <c r="C38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" ht="30">
+      <c r="C39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" ht="32">
+      <c r="C40" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" ht="30">
+      <c r="C41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" ht="32">
+      <c r="C42" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18">
+      <c r="C43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18">
+      <c r="C44" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18">
+      <c r="C45" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18">
+      <c r="C46" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18">
+      <c r="C47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" ht="240">
+      <c r="D48" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="10" customFormat="1">
+      <c r="D50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" s="11"/>
+      <c r="R50" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="C54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="F55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="32">
+      <c r="D57" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="10" customFormat="1" ht="15">
+      <c r="D59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="C62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="C63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="D65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="10" customFormat="1" ht="15">
+      <c r="D67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R67" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="C70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="F71" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="D73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="10" customFormat="1" ht="15">
+      <c r="D80" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R80" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R81" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="C83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="D85" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="105">
+      <c r="A87" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="10" customFormat="1" ht="15">
+      <c r="D90" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N90" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P90" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R90" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R91" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="C93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="C94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="D96" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="C3" s="2" t="s">
+      <c r="H96" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="R97" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="10" customFormat="1" ht="15">
+      <c r="D100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R100" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R101" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="C103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="C104" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="D106" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="10" customFormat="1" ht="15">
+      <c r="D112" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N112" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P112" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="R112" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="7" customFormat="1" ht="15">
+      <c r="A113" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R113" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="C5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="30">
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="75">
-      <c r="D9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2" t="s">
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="8" customFormat="1">
-      <c r="D11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="R11" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="48">
-      <c r="D18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="8" customFormat="1">
-      <c r="D20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="R20" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="E25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="64">
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="118" spans="1:18">
+      <c r="D118" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H118" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="8" customFormat="1" ht="15">
-      <c r="D29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="C32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="C33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="D35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="8" customFormat="1" ht="15">
-      <c r="D37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="C40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="E41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="D43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="8" customFormat="1" ht="15">
-      <c r="D50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A51" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="C53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="32">
-      <c r="D55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="8" customFormat="1" ht="15">
-      <c r="D60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P60" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="R60" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="C63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R63" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="C64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="D66" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="32">
-      <c r="H67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="8" customFormat="1" ht="15">
-      <c r="D70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R70" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A71" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="C73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
-      <c r="C74" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="32">
-      <c r="D76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" s="8" customFormat="1" ht="15">
-      <c r="D82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="P82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="R82" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="5" customFormat="1" ht="15">
-      <c r="A83" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R83" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
-      <c r="A84" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="R118" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="D88" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/RT database.xlsx
+++ b/RT database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Response db" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="373">
   <si>
     <t>ID</t>
   </si>
@@ -121,30 +121,9 @@
     <t>"Thank you so much for taking the time to write such a nice review"</t>
   </si>
   <si>
-    <t>"We want to resolve this issue to your satisfaction. "</t>
-  </si>
-  <si>
-    <t>"We'll do our best to make it right. "</t>
-  </si>
-  <si>
     <t>"Please contact me directly at "</t>
   </si>
   <si>
-    <t>"Your satisfaction is our priority and we'd like to follow up with you directly. Please contact me directly at "</t>
-  </si>
-  <si>
-    <t>"Please allow us the opportuniy to win back your business. You can email me directly at "</t>
-  </si>
-  <si>
-    <t>"I look forward to hearing from you. "</t>
-  </si>
-  <si>
-    <t>"I hope to hear from you soon. "</t>
-  </si>
-  <si>
-    <t>"Speak soon,"</t>
-  </si>
-  <si>
     <t>"Thank you,"</t>
   </si>
   <si>
@@ -205,18 +184,6 @@
     <t>[5]</t>
   </si>
   <si>
-    <t>["but it looks like we dropped the ball this time. ", "but in this case, we blew it! ", "but sometimes we do not succeed in 100% customer satisfaction. ", "but mistakes were made. "]</t>
-  </si>
-  <si>
-    <t>["We want to resolve this issue to your satisfaction. ", "We'll do our best to make it right. "]</t>
-  </si>
-  <si>
-    <t>["I look forward to hearing from you. ", "I hope to hear from you soon. "]</t>
-  </si>
-  <si>
-    <t>["Sincerely,", "Speak soon,", "Speak soon,"]</t>
-  </si>
-  <si>
     <t>["It doesn't sound like we 'wow'd' you, so please help us up our game. ", "Your feedback helps us improve our service. ", "It sounds like our service was satisfactory, but we strive to do better than that. "]</t>
   </si>
   <si>
@@ -230,9 +197,6 @@
   </si>
   <si>
     <t>["Sincerely,", "Best Regards,", "Kindest Regards,"]</t>
-  </si>
-  <si>
-    <t>["Your satisfaction is our priority and we'd like to follow up with you directly. Please contact me directly at ", "Please allow us the opportunity to win back your business. You can email me directly at "]</t>
   </si>
   <si>
     <t>["Thank you for sharing your feedback", "Thank you for your comments"]</t>
@@ -887,9 +851,6 @@
     <t>"Thank you for taking the time out of your busy day to let us know about this"</t>
   </si>
   <si>
-    <t>[" Thank you for reaching out to us and letting us know we dropped the ball", "We are truly sorry your experience was not to your satisfaction", "Please allow me to apologize on behalf of everyone here" ,"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business", "We are sad to hear we did not provide you with the best possible experience", "As the person in charge of staffing and customer service I am very dissapointed that we failed you", "Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you", "On reading your review I cannot help it but feel responsible for having dropped the ball", "Thank you for taking the time to point out personnel issues affecting our business", "It seems we have failed to serve you the way you deserve. That is unacceptable", "We are sad to hear things did not go as expected", "From what we can see your experience was not reflective of our brand. We are really sorry for that", "It saddens me to hear about your experience", "I wanted to personally thank you for taking the time to provide feedback about your experience with us", "It seems we had a disconnect and clearly dropped the ball", "Communications are essential to a good experience and somehow we managed to fail you in this area",  "Thank you for taking the time out of your busy day to let us know about this" ]</t>
-  </si>
-  <si>
     <t>"Our goal is customer satisfaction and we clearly failed to deliver. "</t>
   </si>
   <si>
@@ -932,9 +893,6 @@
     <t>"Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "</t>
   </si>
   <si>
-    <t>["Our goal is customer satisfaction and we clearly failed to deliver. ", "We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. ", "We love what we do and we want for every customer to have the best possible experience. ", "Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. ", "We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. ", "Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. ", "Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. ", "We want to be #1 when it comes to customer service and clearly we are missing the mark.", "We can only address problems if we are aware of how our interactions are affecting the customer experience. ", "Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. ", "We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. ", From the moment you walk into our business it is our responsibility to give you the best possible experience and deliver what we promised. ", "As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. ", "Clearly we did not deliver as promised. We are very sorry to have failed you. ", "Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "]</t>
-  </si>
-  <si>
     <t>"Please know that your situation was an exception and we won't allow for repeats."</t>
   </si>
   <si>
@@ -999,6 +957,207 @@
   </si>
   <si>
     <t>"In the future please don't hesitate to ask for our manager on duty. He will take care of you right away. "</t>
+  </si>
+  <si>
+    <t>"Internally, we are already investigating the matter and looking for ways to ensure this does not happen again. "</t>
+  </si>
+  <si>
+    <t>"Once I get to the root of the problem I will tackle it as first priority to make certain we are delivering first class customer service. "</t>
+  </si>
+  <si>
+    <t>"Would you please allow me a few minutes of your time via phone? I would like a chance to secure more details and the opportunity to make amends. "</t>
+  </si>
+  <si>
+    <t>"Give us another chance. We will not dissapoint. "</t>
+  </si>
+  <si>
+    <t>"Every customer deserves seamless customer service delivered with enthusiasm, accuracy and kindness. "</t>
+  </si>
+  <si>
+    <t>"We realize you have options and would like to have a second chance to show you what we are capable of doing. "</t>
+  </si>
+  <si>
+    <t>"We would appreciate the opportunity to make this right, but can only do so if you give us a second chance. "</t>
+  </si>
+  <si>
+    <t>"I am looking into the situation and taking the necessary steps to correct it going forward. "</t>
+  </si>
+  <si>
+    <t>"Our goal and commitment is to deliver 100% customer satisfaction. Nothing else will do. "</t>
+  </si>
+  <si>
+    <t>"We have a culture of constant improvement and feedback like yours helps us shape the way we do things. "</t>
+  </si>
+  <si>
+    <t>"We also want to take care of you and personally apologize. "</t>
+  </si>
+  <si>
+    <t>"You are valuable to us and we would love to have the chance to keep you among our most valued customers. "</t>
+  </si>
+  <si>
+    <t>"You can stop by or give us a call. We will be happy to help you resolve this matter. "</t>
+  </si>
+  <si>
+    <t>"You are our first priority. Please let us earn your business and your trust. "</t>
+  </si>
+  <si>
+    <t>["It is thanks to feedback like yours that we can tackle issues that may impact our most valuable asset; our customers. ", "Everyone should receive what they paid for. That is our commitment to every one of our customers. ", "As you can see on other reviews, we are known for taking ownership and caring deeply for our customers. ", "In the future please don't hesitate to ask for our manager on duty. He will take care of you right away. ", "Internally, we are already investigating the matter and looking for ways to ensure this does not happen again. ", "Once I get to the root of the problem I will tackle it as first priority to make certain we are delivering first class customer service. ", "Would you please allow me a few minutes of your time via phone? I would like a chance to secure more details and the opportunity to make amends. ", "Give us another chance. We will not dissapoint. ", "Every customer deserves seamless customer service delivered with enthusiasm, accuracy and kindness. ", "We realize you have options and would like to have a second chance to show you what we are capable of doing. ", "We would appreciate the opportunity to make this right, but can only do so if you give us a second chance. ", "I am looking into the situation and taking the necessary steps to correct it going forward. ", "We have a culture of constant improvement and feedback like yours helps us shape the way we do things. ", "We also want to take care of you and personally apologize. ", "You are valuable to us and we would love to have the chance to keep you among our most valued customers. ", "You can stop by or give us a call. We will be happy to help you resolve this matter. ", "You are our first priority. Please let us earn your business and your trust. "]</t>
+  </si>
+  <si>
+    <t>"Please allow us an opportunity to make amends and receive our most sincere apologies. You can contact me directly at  "</t>
+  </si>
+  <si>
+    <t>"We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at  "</t>
+  </si>
+  <si>
+    <t>" or by calling us on our main telephone. "</t>
+  </si>
+  <si>
+    <t>"We are looking into this issue and hope to resolve it promptly and accurately. We have reached out to you via email, but if you need to contact us sooner please feel free to contact me at "</t>
+  </si>
+  <si>
+    <t>" and we'll do our best to make it right. "</t>
+  </si>
+  <si>
+    <t>" or feel free to call us on our main line. "</t>
+  </si>
+  <si>
+    <t>"We want your business and will do whatever it takes to earn it back. You have our promise. Please reach out to me via email "</t>
+  </si>
+  <si>
+    <t>" so I can make sure we take care of you. "</t>
+  </si>
+  <si>
+    <t>"Would you please reach out to me at your leisure via email at"</t>
+  </si>
+  <si>
+    <t>"and I will personally make sure we take care of you."</t>
+  </si>
+  <si>
+    <t>If you need to contact me to discuss further please reach out to me via email at "</t>
+  </si>
+  <si>
+    <t>"and I will be delighted to assist you. "</t>
+  </si>
+  <si>
+    <t>"or by phone using our main phone number. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I can be reached via email at " </t>
+  </si>
+  <si>
+    <t>"I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at "</t>
+  </si>
+  <si>
+    <t>"We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at "</t>
+  </si>
+  <si>
+    <t>"as I would love to talk to you and find a way to remedy the situation. "</t>
+  </si>
+  <si>
+    <t>"Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at "</t>
+  </si>
+  <si>
+    <t>"so that I can personally resolve this problem to your satisfation. "</t>
+  </si>
+  <si>
+    <t>"Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at "</t>
+  </si>
+  <si>
+    <t>"or by phone. I am available to discuss this matter at your leisure. "</t>
+  </si>
+  <si>
+    <t>"or by phone. Until then, please receive my most sincere apologies on behalf of everyone in the team. "</t>
+  </si>
+  <si>
+    <t>"When you have a free moment kindly reach out to me via email at "</t>
+  </si>
+  <si>
+    <t>"I will do whatever I can to resolve this matter to your satisfaction. "</t>
+  </si>
+  <si>
+    <t>"We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email  "</t>
+  </si>
+  <si>
+    <t>"We want you to be satisfied with your transaction. Please contact me at "</t>
+  </si>
+  <si>
+    <t>" or by phone so we can chat. "</t>
+  </si>
+  <si>
+    <t>"and I will do whatever I can to resolve this matter to your satisfaction. "</t>
+  </si>
+  <si>
+    <t>" I am ready to help you at any time. You can reach me via phone or by email at "</t>
+  </si>
+  <si>
+    <t>"so let's take care of this matter. "</t>
+  </si>
+  <si>
+    <t>"We remain commited to you. Please email me at "</t>
+  </si>
+  <si>
+    <t>" and let us take care of this. "</t>
+  </si>
+  <si>
+    <t>"I look forward to chatting with you and finding a way to resolve your issue."</t>
+  </si>
+  <si>
+    <t>"Yours,"</t>
+  </si>
+  <si>
+    <t>"Respectfully yours,"</t>
+  </si>
+  <si>
+    <t>"Looking forward to your call,"</t>
+  </si>
+  <si>
+    <t>"With my most sincere apologies,"</t>
+  </si>
+  <si>
+    <t>"Sincerely yours,"</t>
+  </si>
+  <si>
+    <t>"Commited to excellence in service,"</t>
+  </si>
+  <si>
+    <t>"Respectfully at your service,"</t>
+  </si>
+  <si>
+    <t>"Looking forward to meeting you in person,"</t>
+  </si>
+  <si>
+    <t>"Thanks again for your honest feedback,"</t>
+  </si>
+  <si>
+    <t>"Your friend,"</t>
+  </si>
+  <si>
+    <t>"Kind Regards,"</t>
+  </si>
+  <si>
+    <t>"On behalf of our team,"</t>
+  </si>
+  <si>
+    <t>"Looking forward to helping you out,"</t>
+  </si>
+  <si>
+    <t>"Cordial Regards,"</t>
+  </si>
+  <si>
+    <t>["I look forward to chatting with you and finding a way to resolve your issue.", "Yours,", "Respectfully yours,", "Kindly,", "Looking forward to your call,", "Kindest Regards,", "At your service,", "With my most sincere apologies,", "Sincerely yours,", "Commited to excellence in service,","Respectfully at your service,", "Thanks again for your honest feedback,", "Kind Regards,", "On behalf of our team,"]</t>
+  </si>
+  <si>
+    <t>[" Thank you for reaching out to us and letting us know we dropped the ball", "We are truly sorry your experience was not to your satisfaction", "Please allow me to apologize on behalf of everyone here" ,"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business", "We are sad to hear we did not provide you with the best possible experience", "As the person in charge of staffing and customer service I am very dissapointed that we failed you", "Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you", "On reading your review I cannot help it but feel responsible for having dropped the ball", "Thank you for taking the time to point out personnel issues affecting our business", "It seems we have failed to serve you the way you deserve. That is unacceptable", "We are sad to hear things did not go as expected", "From what we can see your experience was not reflective of our brand. We are really sorry for that", "It saddens me to hear about your experience", "I wanted to personally thank you for taking the time to provide feedback about your experience with us", "It seems we had a disconnect and clearly dropped the ball", "Communications are essential to a good experience and somehow we managed to fail you in this area",  "Thank you for taking the time out of your busy day to let us know about this"]</t>
+  </si>
+  <si>
+    <t>["Please allow us an opportunity to make amends and extend our most sincere apologies. You can contact me directly at  ", "We hope you give us a second chance. Rest assured we won't dissapoint. ", "We are looking into this issue and hope to resolve it promptly and accurately. ", "We want your business and will do whatever it takes to earn it back. You have our promise. ", "Would you please reach out to me at your leisure via email at ","If you need to contact me to discuss further please reach out to me via email at ", "I can be reached via email at ", "I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at ", "We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at ", "Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at ", "Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at ", "We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email at ", "When you have a free moment kindly reach out to me via email at ", "We want you to be satisfied with your transaction. Please contact me at ", "When you have a free moment kindly reach out to me via email at ", " I am ready to help you at any time. You can reach me via phone or by email at ", "We remain commited to you. Please email me at "]</t>
+  </si>
+  <si>
+    <t>[" or by calling us on our main telephone. ", " and we'll do our best to make it right. ", " or feel free to call us on our main line. ", " so I can make sure we take care of you. ", "and I will personally make sure we take care of you.", "and I will be delighted to assist you. ", "or by phone using our main phone number. ", "as I would love to talk to you and find a way to remedy the situation. ", "so that I can personally resolve this problem to your satisfation. ", "or by phone. Until then, please receive my most sincere apologies on behalf of everyone in the team. ", "or by phone. I am available to discuss this matter at your leisure. ", "I will do whatever I can to resolve this matter to your satisfaction. ", " or by phone so we can chat. ", "and I will do whatever I can to resolve this matter to your satisfaction. ", "so let's take care of this matter. ", " and let us take care of this. "]</t>
+  </si>
+  <si>
+    <t>["Our goal is customer satisfaction and we clearly failed to deliver. ", "We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. ", "We love what we do and we want for every customer to have the best possible experience. ", "Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. ", "We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. ", "Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. ", "Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. ", "We want to be #1 when it comes to customer service and clearly we are missing the mark.", "We can only address problems if we are aware of how our interactions are affecting the customer experience. ", "Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. ", "We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. ", "From the moment you walk into our business it is our responsibility to give you the best possible experience and deliver what we promised. ", "As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. ", "Clearly we did not deliver as promised. We are very sorry to have failed you. ", "Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "]</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1187">
+  <cellStyleXfs count="1379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2289,8 +2448,200 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2341,8 +2692,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1187">
+  <cellStyles count="1379">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2936,6 +3291,102 @@
     <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3529,6 +3980,102 @@
     <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3858,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="E41" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3878,16 +4425,17 @@
     <col min="10" max="10" width="110.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.83203125" style="4" customWidth="1"/>
     <col min="12" max="12" width="106.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="104.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" customWidth="1"/>
     <col min="16" max="16" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="4" customWidth="1"/>
     <col min="18" max="18" width="33.5" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="13.6640625" style="4"/>
+    <col min="19" max="19" width="4.83203125" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="13.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3916,849 +4464,1059 @@
         <v>7</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="32">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="32">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="30">
+        <v>213</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30">
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>214</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="32">
+      <c r="C8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="32">
-      <c r="C8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="R8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30">
+    <row r="9" spans="1:19" ht="30">
       <c r="C9" s="4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="32">
+      <c r="C10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="32">
+      <c r="C11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30">
+      <c r="C12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
+      <c r="C14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30">
+      <c r="C15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="32">
+      <c r="C17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30">
+      <c r="C18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="C19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="C20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="C21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="32">
-      <c r="C10" s="4" t="s">
+      <c r="K21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="C22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="32">
-      <c r="C11" s="4" t="s">
+      <c r="M22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="C23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="30">
-      <c r="C12" s="4" t="s">
+      <c r="M23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="255">
+      <c r="D25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="C13" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
-      <c r="C14" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30">
-      <c r="C15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="C16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="32">
-      <c r="C17" s="4" t="s">
+      <c r="L25" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N25" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="30">
-      <c r="C18" s="4" t="s">
+      <c r="R25" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="C19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="C20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="C21" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="C22" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="C23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="255">
-      <c r="D25" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="10" customFormat="1">
+    </row>
+    <row r="27" spans="1:19" s="10" customFormat="1">
       <c r="D27" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P27" s="11"/>
       <c r="R27" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="7" customFormat="1" ht="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -4787,605 +5545,965 @@
         <v>7</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="48">
       <c r="A29" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="32">
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="30">
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="32">
+      <c r="C32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" ht="32">
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19">
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" ht="30">
+      <c r="C35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" ht="32">
+      <c r="C36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" ht="30">
+      <c r="C37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" ht="32">
+      <c r="C38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" ht="30">
+      <c r="C39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" ht="32">
+      <c r="C40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" ht="32">
+      <c r="C41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="E41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" ht="32">
+      <c r="C42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="G42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L42" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19">
+      <c r="C43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="I43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="32">
-      <c r="C30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="K43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19">
+      <c r="C44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="I44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="K44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" ht="32">
+      <c r="C45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="I45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="32">
-      <c r="C32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="K45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19">
+      <c r="C46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19">
+      <c r="C47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" ht="240">
+      <c r="D48" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" ht="32">
-      <c r="C33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18">
-      <c r="C34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" ht="30">
-      <c r="C35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" ht="32">
-      <c r="C36" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18">
-      <c r="C37" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" ht="30">
-      <c r="C38" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18" ht="30">
-      <c r="C39" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18" ht="32">
-      <c r="C40" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18" ht="30">
-      <c r="C41" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="3:18" ht="32">
-      <c r="C42" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18">
-      <c r="C43" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18">
-      <c r="C44" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18">
-      <c r="C45" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="3:18">
-      <c r="C46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18">
-      <c r="C47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" ht="240">
-      <c r="D48" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="J48" s="4" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>63</v>
+        <v>371</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="10" customFormat="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="10" customFormat="1">
       <c r="D50" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P50" s="11"/>
       <c r="R50" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="7" customFormat="1" ht="15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -5414,161 +6532,164 @@
         <v>7</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="K53" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R53" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="C54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="F55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="32">
+      <c r="D57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="F55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q55" s="4" t="s">
+      <c r="L57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R55" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="32">
-      <c r="D57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="10" customFormat="1" ht="15">
+    </row>
+    <row r="59" spans="1:19" s="10" customFormat="1" ht="15">
       <c r="D59" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="P59" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="7" customFormat="1" ht="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -5597,158 +6718,170 @@
         <v>7</v>
       </c>
       <c r="R60" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="C62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="C63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="E63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="D65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="C62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="C63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
-      <c r="D65" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="H65" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="10" customFormat="1" ht="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="10" customFormat="1" ht="15">
       <c r="D67" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="7" customFormat="1" ht="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -5777,137 +6910,143 @@
         <v>7</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>108</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="C70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>128</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="F71" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="D73" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="10" customFormat="1" ht="15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="10" customFormat="1" ht="15">
       <c r="D80" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P80" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" s="7" customFormat="1" ht="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -5936,125 +7075,143 @@
         <v>7</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S82" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="C83" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F83" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="D85" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="105">
+      <c r="A87" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R83" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="D85" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R85" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="105">
-      <c r="A87" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" s="10" customFormat="1" ht="15">
+    </row>
+    <row r="90" spans="1:19" s="10" customFormat="1" ht="15">
       <c r="D90" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="7" customFormat="1" ht="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -6083,136 +7240,166 @@
         <v>7</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+        <v>108</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="C93" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <v>109</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="C94" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>50</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="D96" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="R97" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="10" customFormat="1" ht="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" s="10" customFormat="1" ht="15">
       <c r="D100" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="P100" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="R100" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="7" customFormat="1" ht="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" s="7" customFormat="1" ht="15">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -6241,140 +7428,170 @@
         <v>7</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="E102" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+        <v>108</v>
+      </c>
+      <c r="S102" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="C103" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+        <v>128</v>
+      </c>
+      <c r="S103" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="C104" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+        <v>50</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="D106" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H106" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R106" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R106" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" s="10" customFormat="1" ht="15">
+    </row>
+    <row r="112" spans="1:19" s="10" customFormat="1" ht="15">
       <c r="D112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="P112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="R112" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:18" s="7" customFormat="1" ht="15">
@@ -6406,29 +7623,29 @@
         <v>7</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:18">
       <c r="D118" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="R118" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/RT database.xlsx
+++ b/RT database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11300" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Response db" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -121,42 +121,9 @@
     <t>"Thank you so much for taking the time to write such a nice review"</t>
   </si>
   <si>
-    <t>"Please contact me directly at "</t>
-  </si>
-  <si>
     <t>"Thank you,"</t>
   </si>
   <si>
-    <t>"Thank you for sharing your feedback "</t>
-  </si>
-  <si>
-    <t>"Thank you for your comments "</t>
-  </si>
-  <si>
-    <t>"It doesn't sound like we 'wow'd' you, so please help us up our game. "</t>
-  </si>
-  <si>
-    <t>"Your feedback helps us improve our service. "</t>
-  </si>
-  <si>
-    <t>"It sounds like our service was satisfactory, but we strive to do better than that. "</t>
-  </si>
-  <si>
-    <t>"Be sure to let us know what else we can do to improve. "</t>
-  </si>
-  <si>
-    <t>"Your suggestions are welcome. "</t>
-  </si>
-  <si>
-    <t>"You can reach me directly at "</t>
-  </si>
-  <si>
-    <t>"to share any further comments. "</t>
-  </si>
-  <si>
-    <t>"so we can turn that 'meh' into a 'wow'. "</t>
-  </si>
-  <si>
     <t>"Best Regards,"</t>
   </si>
   <si>
@@ -182,24 +149,6 @@
   </si>
   <si>
     <t>[5]</t>
-  </si>
-  <si>
-    <t>["It doesn't sound like we 'wow'd' you, so please help us up our game. ", "Your feedback helps us improve our service. ", "It sounds like our service was satisfactory, but we strive to do better than that. "]</t>
-  </si>
-  <si>
-    <t>["Be sure to let us know what else we can do to improve. ", "Your suggestions are welcome. "]</t>
-  </si>
-  <si>
-    <t>["You can reach me directly at ", "Please contact me directly at "]</t>
-  </si>
-  <si>
-    <t>["to share any further comments. ", "so we can turn that 'meh' into a 'wow'. "]</t>
-  </si>
-  <si>
-    <t>["Sincerely,", "Best Regards,", "Kindest Regards,"]</t>
-  </si>
-  <si>
-    <t>["Thank you for sharing your feedback", "Thank you for your comments"]</t>
   </si>
   <si>
     <t>FYG Postitive</t>
@@ -1151,13 +1100,199 @@
     <t>[" Thank you for reaching out to us and letting us know we dropped the ball", "We are truly sorry your experience was not to your satisfaction", "Please allow me to apologize on behalf of everyone here" ,"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business", "We are sad to hear we did not provide you with the best possible experience", "As the person in charge of staffing and customer service I am very dissapointed that we failed you", "Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you", "On reading your review I cannot help it but feel responsible for having dropped the ball", "Thank you for taking the time to point out personnel issues affecting our business", "It seems we have failed to serve you the way you deserve. That is unacceptable", "We are sad to hear things did not go as expected", "From what we can see your experience was not reflective of our brand. We are really sorry for that", "It saddens me to hear about your experience", "I wanted to personally thank you for taking the time to provide feedback about your experience with us", "It seems we had a disconnect and clearly dropped the ball", "Communications are essential to a good experience and somehow we managed to fail you in this area",  "Thank you for taking the time out of your busy day to let us know about this"]</t>
   </si>
   <si>
-    <t>["Please allow us an opportunity to make amends and extend our most sincere apologies. You can contact me directly at  ", "We hope you give us a second chance. Rest assured we won't dissapoint. ", "We are looking into this issue and hope to resolve it promptly and accurately. ", "We want your business and will do whatever it takes to earn it back. You have our promise. ", "Would you please reach out to me at your leisure via email at ","If you need to contact me to discuss further please reach out to me via email at ", "I can be reached via email at ", "I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at ", "We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at ", "Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at ", "Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at ", "We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email at ", "When you have a free moment kindly reach out to me via email at ", "We want you to be satisfied with your transaction. Please contact me at ", "When you have a free moment kindly reach out to me via email at ", " I am ready to help you at any time. You can reach me via phone or by email at ", "We remain commited to you. Please email me at "]</t>
-  </si>
-  <si>
     <t>[" or by calling us on our main telephone. ", " and we'll do our best to make it right. ", " or feel free to call us on our main line. ", " so I can make sure we take care of you. ", "and I will personally make sure we take care of you.", "and I will be delighted to assist you. ", "or by phone using our main phone number. ", "as I would love to talk to you and find a way to remedy the situation. ", "so that I can personally resolve this problem to your satisfation. ", "or by phone. Until then, please receive my most sincere apologies on behalf of everyone in the team. ", "or by phone. I am available to discuss this matter at your leisure. ", "I will do whatever I can to resolve this matter to your satisfaction. ", " or by phone so we can chat. ", "and I will do whatever I can to resolve this matter to your satisfaction. ", "so let's take care of this matter. ", " and let us take care of this. "]</t>
   </si>
   <si>
     <t>["Our goal is customer satisfaction and we clearly failed to deliver. ", "We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. ", "We love what we do and we want for every customer to have the best possible experience. ", "Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. ", "We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. ", "Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. ", "Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. ", "We want to be #1 when it comes to customer service and clearly we are missing the mark.", "We can only address problems if we are aware of how our interactions are affecting the customer experience. ", "Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. ", "We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. ", "From the moment you walk into our business it is our responsibility to give you the best possible experience and deliver what we promised. ", "As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. ", "Clearly we did not deliver as promised. We are very sorry to have failed you. ", "Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "]</t>
+  </si>
+  <si>
+    <t>["Please allow us an opportunity to make amends and extend our most sincere apologies. You can contact me directly at  ", "We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at   ", "We are looking into this issue and hope to resolve it promptly and accurately. ", "We want your business and will do whatever it takes to earn it back. You have our promise. ", "Would you please reach out to me at your leisure via email at ","If you need to contact me to discuss further please reach out to me via email at ", "I can be reached via email at ", "I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at ", "We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at ", "Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at ", "Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at ", "We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email at ", "When you have a free moment kindly reach out to me via email at ", "We want you to be satisfied with your transaction. Please contact me at ", "When you have a free moment kindly reach out to me via email at ", " I am ready to help you at any time. You can reach me via phone or by email at ", "We remain commited to you. Please email me at "]</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time to provide us with honest &amp; balanced feedback"</t>
+  </si>
+  <si>
+    <t>"I want to take a moment to thank you for your candid feedback"</t>
+  </si>
+  <si>
+    <t>"I just read your review and wanted to follow up"</t>
+  </si>
+  <si>
+    <t>"I wanted to personally thank you for taking the time to provide us with valuable feedback"</t>
+  </si>
+  <si>
+    <t>"We want every customer to have a five star experience but sometimes things don't go as planned"</t>
+  </si>
+  <si>
+    <t>"Thank you for bringing these issues to our attention"</t>
+  </si>
+  <si>
+    <t>"We are sincerely sorry your experience was not up to par"</t>
+  </si>
+  <si>
+    <t>"Our business needs feedback from valuable customers"</t>
+  </si>
+  <si>
+    <t>"It appears your recent visit was not quite like you expected"</t>
+  </si>
+  <si>
+    <t>["Thank you for taking the time to provide us with honest &amp; balanced feedback", "I want to take a moment to thank you for your candid feedback", "I just read your review and wanted to follow up", "I wanted to personally thank you for taking the time to provide us with valuable feedback", "We want every customer to have a five star experience but sometimes things don't go as planned", "Thank you for bringing these issues to our attention", "We are sincerely sorry your experience was not up to par", "Our business needs feedback from valuable customers", "It appears your recent visit was not quite like you expected"]</t>
+  </si>
+  <si>
+    <t>"We are constantly working on ways to deliver customer experiences that exceed expectations. "</t>
+  </si>
+  <si>
+    <t>"Our goal is to gain your trust and endorsment and we take your opinion seriously. "</t>
+  </si>
+  <si>
+    <t>"We are thankful for your business and the feedback you have so generously provided. "</t>
+  </si>
+  <si>
+    <t>"Both accolades and critiques aid us in making sure we are in the right path. "</t>
+  </si>
+  <si>
+    <t>"Thank you for kindly pointing out where we are dropping the ball. "</t>
+  </si>
+  <si>
+    <t>"Feedback like yours is at the very heart of learning how to deliver ever-improving customer experiences. "</t>
+  </si>
+  <si>
+    <t>"We are glad to know that we were still able to do a few things with the excellence we are known for but that is not quite enough! "</t>
+  </si>
+  <si>
+    <t>"We are grateful you took the time to let us know both our weaknesses and our fortes. "</t>
+  </si>
+  <si>
+    <t>["We are constantly working on ways to deliver customer experiences that exceed expectations. ", "Our goal is to gain your trust and endorsment and we take your opinion seriously. ", "We are thankful for your business and the feedback you have so generously provided. ", "Both accolades and critiques aid us in making sure we are in the right path. ", "Thank you for kindly pointing out where we are dropping the ball. ", "Feedback like yours is at the very heart of learning how to deliver ever-improving customer experiences. ", "We are glad to know that we were still able to do a few things with the excellence we are known for but that is not quite enough! ", "We are grateful you took the time to let us know both our weaknesses and our fortes. ", "Thank you for bringing these issues to our attention, and for giving us kind words of encouragement. "]</t>
+  </si>
+  <si>
+    <t>"Thank you for bringing these issues to our attention, and for giving us kind words of encouragement. "</t>
+  </si>
+  <si>
+    <t>"It looks like we were not up to par in some areas and for that we apologize. "</t>
+  </si>
+  <si>
+    <t>"We have forwarded your concerns to the appropriate departments and will most certainly follow up. "</t>
+  </si>
+  <si>
+    <t>"Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. "</t>
+  </si>
+  <si>
+    <t>"Our commitment is to customer excellence every single transaction. "</t>
+  </si>
+  <si>
+    <t>"Everyone in our company is commited to the highest levels of quality. "</t>
+  </si>
+  <si>
+    <t>"We are sorry this time around we did not deliver as planned. "</t>
+  </si>
+  <si>
+    <t>"Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. "</t>
+  </si>
+  <si>
+    <t>"While your experience was not flawless, we want you to know that we are commited to the highest levels of excellence. "</t>
+  </si>
+  <si>
+    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is commited to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are commited to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are commited to the highest levels of excellence. ", ]</t>
+  </si>
+  <si>
+    <t>"We are constantly looking for ways to improve our business and it is thanks to feedback like yours that we have made the most impactful changes. "</t>
+  </si>
+  <si>
+    <t>"We are thankful for your kind words and encouragement. "</t>
+  </si>
+  <si>
+    <t>"We are glad we were able to serve you! "</t>
+  </si>
+  <si>
+    <t>"Please let us know when you are coming again. "</t>
+  </si>
+  <si>
+    <t>"We take your concerns seriously and we are working on ways to make sure everything we do is customer-centric. "</t>
+  </si>
+  <si>
+    <t>"We have forwarded your concerns as well as congratulatory words to every manager involved. "</t>
+  </si>
+  <si>
+    <t>"Please give us another chance to show you what we are capable of doing. "</t>
+  </si>
+  <si>
+    <t>"Do let us make amends next time you visit us. "</t>
+  </si>
+  <si>
+    <t>"We want you to be delighted by what we do. "</t>
+  </si>
+  <si>
+    <t>"We want for every customer to experience our best. "</t>
+  </si>
+  <si>
+    <t>["We are thankful for your kind words and encouragement. ", "We are glad we were able to serve you! ", "Please let us know when you are coming again. ", "We take your concerns seriously and we are working on ways to make sure everything we do is customer-centric. ", "We have forwarded your concerns as well as congratulatory words to every manager involved. ", "Please give us another chance to show you what we are capable of doing. ", "Do let us make amends next time you visit us. ", "We want you to be delighted by what we do. ", "We want for every customer to experience our best. "]</t>
+  </si>
+  <si>
+    <t>"We are listening to our customers each and every time. Your feedback will help us shape what we do. "</t>
+  </si>
+  <si>
+    <t>"We realize you have many options and we are thankful you care enough to give us information that helps shape our business. "</t>
+  </si>
+  <si>
+    <t>"We will try our best to deliver a customer experience worth bragging about. "</t>
+  </si>
+  <si>
+    <t>"Your words of encouragement and appreciation are also very valuable to everyone here. "</t>
+  </si>
+  <si>
+    <t>"We hope to have the honor of your visit soon, that we may show you a new and improved customer experience. "</t>
+  </si>
+  <si>
+    <t>"We can't wait to have the opportunity of doing business with you once again. "</t>
+  </si>
+  <si>
+    <t>"Know that you are valuable to us and we take your feedback seriously. "</t>
+  </si>
+  <si>
+    <t>"Please let us have another chance to prove ourselves. "</t>
+  </si>
+  <si>
+    <t>"Your feedback is helping us shape our business into something we are proud of owning. "</t>
+  </si>
+  <si>
+    <t>["We are listening to our customers each and every time. Your feedback will help us shape what we do. ", "We realize you have many options and we are thankful you care enough to give us information that helps shape our business. ", "We will try our best to deliver a customer experience worth bragging about. ", "Your words of encouragement and appreciation are also very valuable to everyone here. ", "We hope to have the honor of your visit soon, that we may show you a new and improved customer experience. ", "We can't wait to have the opportunity of doing business with you once again. ", "We can't wait to have the opportunity of doing business with you once again. ", "Know that you are valuable to us and we take your feedback seriously. ", "Please let us have another chance to prove ourselves. ", "Your feedback is helping us shape our business into something we are proud of owning. "]</t>
+  </si>
+  <si>
+    <t>"We hope to see you soon and we are confident your experience will be worthy of a five star review. If you have further suggestions, please contact me at "</t>
+  </si>
+  <si>
+    <t>"If I can help you in any way please reach out to me via email at "</t>
+  </si>
+  <si>
+    <t>"In the interim please contact me if I can further assist you. My email is: "</t>
+  </si>
+  <si>
+    <t>"Do visit us once again. It will be our pleasure to serve you. In the meantime, please don't hesitate to reach out to me at "</t>
+  </si>
+  <si>
+    <t>"Your friendship and patronage is very important to us, and further comments can be emailed to me at "</t>
+  </si>
+  <si>
+    <t>"Know that we will do everything in our power to truly earn your business and your loyalty, and further suggestions can be sent to us at "</t>
+  </si>
+  <si>
+    <t>"Thanks again for giving us the opportunity to serve you. Please send any additional feedback to us at "</t>
+  </si>
+  <si>
+    <t>"We promise to delight you and yours by trying our very best. Specific suggestions are welcome at "</t>
+  </si>
+  <si>
+    <t>"We are thankful for your business and look forward to your next visit. In the meantime, please reach out with any further feedback at "</t>
+  </si>
+  <si>
+    <t>["We hope to see you soon and we are confident your experience will be worthy of a five star review. If you have further suggestions, please contact me at ", "If I can help you in any way please reach out to me via email at ", "In the interim please contact me if I can further assist you. My email is: ", "Do visit us once again. It will be our pleasure to serve you. In the meantime, please don't hesitate to reach out to me at ", "Your friendship and patronage is very important to us, and further comments can be emailed to me at ", "Know that we will do everything in our power to truly earn your business and your loyalty, and further suggestions can be sent to us at ", "Thanks again for giving us the opportunity to serve you. Please send anyadditional feedback to us at ", "We promise to delight you and yours by trying our very best. Specific suggestions are welcome at ", "We are thankful for your business and look forward to your next visit. In the meantime, please reach out with any further feedback at "]</t>
+  </si>
+  <si>
+    <t>"With gratitude,"</t>
+  </si>
+  <si>
+    <t>["With gratitude,", "Respectfully,", "At your service,", "Kindly,", "Yours,", "On behalf of our team,", "Kind Regards,", "With gratitude,"]</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1395,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1379">
+  <cellStyleXfs count="1567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2640,8 +2775,196 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2649,6 +2972,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2683,21 +3009,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1379">
+  <cellStyles count="1567">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3387,6 +3706,100 @@
     <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4076,6 +4489,100 @@
     <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4405,3247 +4912,3630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S118"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E41" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="O49" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="110.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="102.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="112" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="110.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="106.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="104.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="33.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.83203125" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="13.6640625" style="4"/>
+    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="110.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="102.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="112" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="110.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="106.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="104.83203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="33.5" style="6" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="13.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>63</v>
+      <c r="R1" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="32">
-      <c r="A2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30">
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="32">
+      <c r="C8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30">
+      <c r="C9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="32">
+      <c r="C10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="32">
+      <c r="C11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30">
+      <c r="C12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
+      <c r="C14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30">
+      <c r="C15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="30">
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="I15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="32">
+      <c r="C17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30">
+      <c r="C18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="C19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="C20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="C21" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="32">
-      <c r="C8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30">
-      <c r="C9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="32">
-      <c r="C10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="D21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="C22" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="32">
-      <c r="C11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="30">
-      <c r="C12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="C13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="30">
-      <c r="C14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="30">
-      <c r="C15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="32">
-      <c r="C17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="D22" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="C23" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="30">
-      <c r="C18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="C19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="C20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="C21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="C22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="C23" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>243</v>
+        <v>133</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:19" ht="255">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="H25" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="11" customFormat="1">
+      <c r="D27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="12"/>
+      <c r="R27" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="48">
+      <c r="A29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="32">
+      <c r="C30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="30">
+      <c r="C31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="32">
+      <c r="C32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" ht="32">
+      <c r="C33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19">
+      <c r="C34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" ht="30">
+      <c r="C35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" ht="32">
+      <c r="C36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" ht="30">
+      <c r="C37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="E37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" ht="32">
+      <c r="C38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="E38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" ht="30">
+      <c r="C39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="E39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" ht="32">
+      <c r="C40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" ht="32">
+      <c r="C41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" ht="32">
+      <c r="C42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19">
+      <c r="C43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19">
+      <c r="C44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" ht="32">
+      <c r="C45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="N25" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="10" customFormat="1">
-      <c r="D27" s="10" t="s">
+      <c r="E45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19">
+      <c r="C46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19">
+      <c r="C47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" ht="240">
+      <c r="D48" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="11" customFormat="1">
+      <c r="D50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P50" s="12"/>
+      <c r="R50" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="32">
+      <c r="A53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="C54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="30">
+      <c r="C55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="32">
+      <c r="C56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="C57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="32">
+      <c r="C58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="30">
+      <c r="C59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="C60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="32">
+      <c r="C61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="30">
+      <c r="C62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="160">
+      <c r="D65" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="11" customFormat="1" ht="15">
+      <c r="D67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R67" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="C70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="C71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="D73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="11" customFormat="1" ht="15">
+      <c r="D75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A76" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P76" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R76" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="C78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="F79" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="D81" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" s="11" customFormat="1" ht="15">
+      <c r="D88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R88" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A89" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R89" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="C91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="D93" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" s="11"/>
-      <c r="R27" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A28" s="7" t="s">
+      <c r="H93" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="105">
+      <c r="A95" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" s="11" customFormat="1" ht="15">
+      <c r="D98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R98" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A99" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D99" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F99" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H99" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J99" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L99" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N99" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P99" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="48">
-      <c r="A29" s="4" t="s">
+      <c r="R99" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="C101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S101" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="C102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="D104" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="R105" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" s="11" customFormat="1" ht="15">
+      <c r="D108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R108" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" s="8" customFormat="1" ht="15">
+      <c r="A109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R109" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="C111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R111" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="32">
-      <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="30">
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="32">
-      <c r="C32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" ht="32">
-      <c r="C33" s="4" t="s">
+      <c r="S111" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="C112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="D114" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="11" customFormat="1" ht="15">
+      <c r="D120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R120" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" s="8" customFormat="1" ht="15">
+      <c r="A121" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R121" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19">
-      <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" ht="30">
-      <c r="C35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="3:19" ht="32">
-      <c r="C36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" ht="30">
-      <c r="C37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19" ht="32">
-      <c r="C38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" ht="30">
-      <c r="C39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="3:19" ht="32">
-      <c r="C40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="3:19" ht="32">
-      <c r="C41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="3:19" ht="32">
-      <c r="C42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="3:19">
-      <c r="C43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="3:19">
-      <c r="C44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="3:19" ht="32">
-      <c r="C45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="3:19">
-      <c r="C46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="47" spans="3:19">
-      <c r="C47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" spans="3:19" ht="240">
-      <c r="D48" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="10" customFormat="1">
-      <c r="D50" s="10" t="s">
+    </row>
+    <row r="126" spans="1:18">
+      <c r="D126" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P50" s="11"/>
-      <c r="R50" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A52" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R52" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S53" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="C54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S54" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="F55" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="32">
-      <c r="D57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="10" customFormat="1" ht="15">
-      <c r="D59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P59" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="R59" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A60" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R60" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S61" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="C62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="C63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="D65" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" s="10" customFormat="1" ht="15">
-      <c r="D67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P67" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R67" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A68" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R68" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
-      <c r="C70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="S70" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
-      <c r="F71" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
-      <c r="D73" s="4" t="s">
+      <c r="R126" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" s="10" customFormat="1" ht="15">
-      <c r="D80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R80" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A81" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R81" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
-      <c r="A82" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R82" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S82" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="C83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R83" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S83" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
-      <c r="D85" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R85" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="105">
-      <c r="A87" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" s="10" customFormat="1" ht="15">
-      <c r="D90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P90" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R90" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A91" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R91" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="A92" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R92" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S92" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
-      <c r="C93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R93" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="S93" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
-      <c r="C94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S94" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
-      <c r="D96" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
-      <c r="R97" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" s="10" customFormat="1" ht="15">
-      <c r="D100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="R100" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A101" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P101" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R101" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
-      <c r="A102" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R102" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S102" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
-      <c r="C103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q103" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R103" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="S103" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
-      <c r="C104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S104" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
-      <c r="D106" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R106" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" s="10" customFormat="1" ht="15">
-      <c r="D112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P112" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="R112" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" s="7" customFormat="1" ht="15">
-      <c r="A113" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N113" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P113" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R113" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
-      <c r="A114" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
-      <c r="D118" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R118" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/RT database.xlsx
+++ b/RT database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11300" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21680" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Response db" sheetId="1" r:id="rId1"/>
@@ -1043,9 +1043,6 @@
     <t>"so let's take care of this matter. "</t>
   </si>
   <si>
-    <t>"We remain commited to you. Please email me at "</t>
-  </si>
-  <si>
     <t>" and let us take care of this. "</t>
   </si>
   <si>
@@ -1067,9 +1064,6 @@
     <t>"Sincerely yours,"</t>
   </si>
   <si>
-    <t>"Commited to excellence in service,"</t>
-  </si>
-  <si>
     <t>"Respectfully at your service,"</t>
   </si>
   <si>
@@ -1094,9 +1088,6 @@
     <t>"Cordial Regards,"</t>
   </si>
   <si>
-    <t>["I look forward to chatting with you and finding a way to resolve your issue.", "Yours,", "Respectfully yours,", "Kindly,", "Looking forward to your call,", "Kindest Regards,", "At your service,", "With my most sincere apologies,", "Sincerely yours,", "Commited to excellence in service,","Respectfully at your service,", "Thanks again for your honest feedback,", "Kind Regards,", "On behalf of our team,"]</t>
-  </si>
-  <si>
     <t>[" Thank you for reaching out to us and letting us know we dropped the ball", "We are truly sorry your experience was not to your satisfaction", "Please allow me to apologize on behalf of everyone here" ,"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business", "We are sad to hear we did not provide you with the best possible experience", "As the person in charge of staffing and customer service I am very dissapointed that we failed you", "Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you", "On reading your review I cannot help it but feel responsible for having dropped the ball", "Thank you for taking the time to point out personnel issues affecting our business", "It seems we have failed to serve you the way you deserve. That is unacceptable", "We are sad to hear things did not go as expected", "From what we can see your experience was not reflective of our brand. We are really sorry for that", "It saddens me to hear about your experience", "I wanted to personally thank you for taking the time to provide feedback about your experience with us", "It seems we had a disconnect and clearly dropped the ball", "Communications are essential to a good experience and somehow we managed to fail you in this area",  "Thank you for taking the time out of your busy day to let us know about this"]</t>
   </si>
   <si>
@@ -1106,9 +1097,6 @@
     <t>["Our goal is customer satisfaction and we clearly failed to deliver. ", "We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. ", "We love what we do and we want for every customer to have the best possible experience. ", "Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. ", "We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. ", "Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. ", "Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. ", "We want to be #1 when it comes to customer service and clearly we are missing the mark.", "We can only address problems if we are aware of how our interactions are affecting the customer experience. ", "Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. ", "We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. ", "From the moment you walk into our business it is our responsibility to give you the best possible experience and deliver what we promised. ", "As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. ", "Clearly we did not deliver as promised. We are very sorry to have failed you. ", "Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "]</t>
   </si>
   <si>
-    <t>["Please allow us an opportunity to make amends and extend our most sincere apologies. You can contact me directly at  ", "We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at   ", "We are looking into this issue and hope to resolve it promptly and accurately. ", "We want your business and will do whatever it takes to earn it back. You have our promise. ", "Would you please reach out to me at your leisure via email at ","If you need to contact me to discuss further please reach out to me via email at ", "I can be reached via email at ", "I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at ", "We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at ", "Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at ", "Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at ", "We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email at ", "When you have a free moment kindly reach out to me via email at ", "We want you to be satisfied with your transaction. Please contact me at ", "When you have a free moment kindly reach out to me via email at ", " I am ready to help you at any time. You can reach me via phone or by email at ", "We remain commited to you. Please email me at "]</t>
-  </si>
-  <si>
     <t>"Thank you for taking the time to provide us with honest &amp; balanced feedback"</t>
   </si>
   <si>
@@ -1181,21 +1169,12 @@
     <t>"Our commitment is to customer excellence every single transaction. "</t>
   </si>
   <si>
-    <t>"Everyone in our company is commited to the highest levels of quality. "</t>
-  </si>
-  <si>
     <t>"We are sorry this time around we did not deliver as planned. "</t>
   </si>
   <si>
     <t>"Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. "</t>
   </si>
   <si>
-    <t>"While your experience was not flawless, we want you to know that we are commited to the highest levels of excellence. "</t>
-  </si>
-  <si>
-    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is commited to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are commited to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are commited to the highest levels of excellence. ", ]</t>
-  </si>
-  <si>
     <t>"We are constantly looking for ways to improve our business and it is thanks to feedback like yours that we have made the most impactful changes. "</t>
   </si>
   <si>
@@ -1293,6 +1272,27 @@
   </si>
   <si>
     <t>["With gratitude,", "Respectfully,", "At your service,", "Kindly,", "Yours,", "On behalf of our team,", "Kind Regards,", "With gratitude,"]</t>
+  </si>
+  <si>
+    <t>"We remain committed to you. Please email me at "</t>
+  </si>
+  <si>
+    <t>["Please allow us an opportunity to make amends and extend our most sincere apologies. You can contact me directly at  ", "We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at   ", "We are looking into this issue and hope to resolve it promptly and accurately. ", "We want your business and will do whatever it takes to earn it back. You have our promise. ", "Would you please reach out to me at your leisure via email at ","If you need to contact me to discuss further please reach out to me via email at ", "I can be reached via email at ", "I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at ", "We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at ", "Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at ", "Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at ", "We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email at ", "When you have a free moment kindly reach out to me via email at ", "We want you to be satisfied with your transaction. Please contact me at ", "When you have a free moment kindly reach out to me via email at ", " I am ready to help you at any time. You can reach me via phone or by email at ", "We remain committed to you. Please email me at "]</t>
+  </si>
+  <si>
+    <t>"Everyone in our company is committed to the highest levels of quality. "</t>
+  </si>
+  <si>
+    <t>"While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. "</t>
+  </si>
+  <si>
+    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is committed to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", ]</t>
+  </si>
+  <si>
+    <t>"Committed to excellence in service,"</t>
+  </si>
+  <si>
+    <t>["I look forward to chatting with you and finding a way to resolve your issue.", "Yours,", "Respectfully yours,", "Kindly,", "Looking forward to your call,", "Kindest Regards,", "At your service,", "With my most sincere apologies,", "Sincerely yours,", "Committed to excellence in service,","Respectfully at your service,", "Thanks again for your honest feedback,", "Kind Regards,", "On behalf of our team,"]</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1567">
+  <cellStyleXfs count="1595">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3016,7 +3044,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1567">
+  <cellStyles count="1595">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3800,6 +3828,20 @@
     <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4583,6 +4625,20 @@
     <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4914,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O49" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6105,7 +6161,7 @@
         <v>37</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>37</v>
@@ -6155,7 +6211,7 @@
         <v>38</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>38</v>
@@ -6205,7 +6261,7 @@
         <v>39</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>39</v>
@@ -6305,7 +6361,7 @@
         <v>41</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>41</v>
@@ -6452,7 +6508,7 @@
         <v>212</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>212</v>
@@ -6502,7 +6558,7 @@
         <v>213</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>213</v>
@@ -6552,7 +6608,7 @@
         <v>214</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>214</v>
@@ -6602,7 +6658,7 @@
         <v>215</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>215</v>
@@ -6652,7 +6708,7 @@
         <v>216</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>216</v>
@@ -6702,7 +6758,7 @@
         <v>217</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>217</v>
@@ -6752,7 +6808,7 @@
         <v>218</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>218</v>
@@ -6799,7 +6855,7 @@
         <v>219</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>219</v>
@@ -6846,7 +6902,7 @@
         <v>220</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>220</v>
@@ -6878,13 +6934,13 @@
         <v>221</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>221</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>221</v>
@@ -6893,7 +6949,7 @@
         <v>221</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>221</v>
@@ -6928,7 +6984,7 @@
         <v>222</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>222</v>
@@ -6965,10 +7021,10 @@
     </row>
     <row r="48" spans="3:19" ht="240">
       <c r="D48" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>284</v>
@@ -6977,13 +7033,13 @@
         <v>303</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="11" customFormat="1">
@@ -7053,37 +7109,37 @@
         <v>37</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>37</v>
@@ -7092,7 +7148,7 @@
         <v>37</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="S53" s="5" t="s">
         <v>37</v>
@@ -7103,37 +7159,37 @@
         <v>38</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>38</v>
@@ -7153,37 +7209,37 @@
         <v>39</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>39</v>
@@ -7203,37 +7259,37 @@
         <v>40</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>40</v>
@@ -7253,37 +7309,37 @@
         <v>41</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>41</v>
@@ -7292,7 +7348,7 @@
         <v>41</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S57" s="5" t="s">
         <v>41</v>
@@ -7303,37 +7359,37 @@
         <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>42</v>
@@ -7342,7 +7398,7 @@
         <v>42</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S58" s="5" t="s">
         <v>42</v>
@@ -7353,37 +7409,37 @@
         <v>211</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>211</v>
@@ -7392,7 +7448,7 @@
         <v>211</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S59" s="5" t="s">
         <v>211</v>
@@ -7403,37 +7459,37 @@
         <v>212</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>212</v>
@@ -7442,7 +7498,7 @@
         <v>212</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="S60" s="5" t="s">
         <v>212</v>
@@ -7453,37 +7509,37 @@
         <v>213</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>213</v>
@@ -7506,7 +7562,7 @@
         <v>214</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>214</v>
@@ -7515,7 +7571,7 @@
         <v>214</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M62" s="5" t="s">
         <v>214</v>
@@ -7532,25 +7588,25 @@
     </row>
     <row r="65" spans="1:19" ht="160">
       <c r="D65" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="11" customFormat="1" ht="15">

--- a/RT database.xlsx
+++ b/RT database.xlsx
@@ -721,6 +721,558 @@
     <t>["We can't wait for the next opportunity to serve you; and will do everthing in our power to once again allow you to experience the best that we have to offer. ", "We sincerely look forward to serving you time after time. ", "Please visit us again. It will be our honor and delight to serve you. ", "We will do whatever it takes to once again deliver an experience worth bragging about. ", "We look forward to your next visit. It was truly a pleasure to serve you. ", "Also, consider joining our mailing list with exclusive promos and discounts for our best customers. ", "Thank you for taking time to share your opinion with others. Please come again. ", "It will be our pleasure to serve you. ", "We want to earn your business each and every time and to this end we are constantly looking for better ways to serve you. ", "Do allow us the opportunity to serve you again. We will do everything in our power to deliver an even better customer experience. ", "We are honored to have had the opportunity to serve you. ", "That is our commitment to you. ", "We will do whatever it takes to once again deliver an experience worth bragging about. ", "Looking forward to your next visit. ", "Know that we are here to serve you and will always try our best. ", "We really look forward to serving you for many years to come. ", "Our goal is to make you a part of our family and make you feel welcome every single time. ", "Thank you for your friendship and patronage. ", "Know that we are hard at work finding ways to do things better every single time. "]</t>
   </si>
   <si>
+    <t>"Come visit us soon. You can count on every one of us doing our best! "</t>
+  </si>
+  <si>
+    <t>["Your opinion also empowers other people in the community to connect with us and enjoy all the services we currently provide. ", "Our brand promise is all about delivering seamless experiences that exceed customer expectations! ", "Thank you once again for giving us a pat on the back. We value your patronage and friendship. ", "We are honored by your choice to do business with us, and look forward to your next visit. ", "We will be sharing your review with the team as a way to encourage them to continue to strive for excellence in customer service. ", "We know that you have options and are very honored that you selected us and proud to have served you. ", "Please visit us again. ", "Please remember that we remain committed to be the best in the industry, that we may gain your business time after time. ", "We will be sure to share your review with our team on our next staff meeting. ", "Come visit us soon. You can count on every one of us doing our best! ", "We hope you give us the opportunity to connect with you again. ", "We look forward to your next visit and will once again work hard to earn your endorsement. ",  "Know that are thankful for the trust you have placed on us. Know that we are working extra hard to always push ourselves to the next level. ", "We hope you make us part of your traditions and we have the privilege to serve you for many years to come. ", "Please don't make it a once in a lifetime! ", "We hope to become one of your favorites. Do let us know what we need to do to earn your continued loyalty. ", "We invite you to join us again. You can count on us to pour our hearts out and try our best to make your experience one worth bragging about. ", "We hope you give us the opportunity to serve you again. Rest assured we will do whatever it takes to deliver on our promise. "]</t>
+  </si>
+  <si>
+    <t>" Thank you for reaching out to us and letting us know we dropped the ball"</t>
+  </si>
+  <si>
+    <t>"We are truly sorry your experience was not to your satisfaction"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Please allow me to apologize on behalf of everyone here" </t>
+  </si>
+  <si>
+    <t>"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business"</t>
+  </si>
+  <si>
+    <t>"We are sad to hear we did not provide you with the best possible experience"</t>
+  </si>
+  <si>
+    <t>"As the person in charge of staffing and customer service I am very dissapointed that we failed you"</t>
+  </si>
+  <si>
+    <t>"Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you"</t>
+  </si>
+  <si>
+    <t>"On reading your review I cannot help it but feel responsible for having dropped the ball"</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time to point out personnel issues affecting our business"</t>
+  </si>
+  <si>
+    <t>"It seems we have failed to serve you the way you deserve. That is unacceptable"</t>
+  </si>
+  <si>
+    <t>"We are sad to hear things did not go as expected"</t>
+  </si>
+  <si>
+    <t>"From what we can see your experience was not reflective of our brand. We are really sorry for that"</t>
+  </si>
+  <si>
+    <t>"It saddens me to hear about your experience"</t>
+  </si>
+  <si>
+    <t>"I wanted to personally thank you for taking the time to provide feedback about your experience with us"</t>
+  </si>
+  <si>
+    <t>"It seems we had a disconnect and clearly dropped the ball"</t>
+  </si>
+  <si>
+    <t>"Communications are essential to a good experience and somehow we managed to fail you in this area"</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time out of your busy day to let us know about this"</t>
+  </si>
+  <si>
+    <t>"Our goal is customer satisfaction and we clearly failed to deliver. "</t>
+  </si>
+  <si>
+    <t>"We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. "</t>
+  </si>
+  <si>
+    <t>"We love what we do and we want for every customer to have the best possible experience. "</t>
+  </si>
+  <si>
+    <t>"Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. "</t>
+  </si>
+  <si>
+    <t>"We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. "</t>
+  </si>
+  <si>
+    <t>"Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. "</t>
+  </si>
+  <si>
+    <t>"Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. "</t>
+  </si>
+  <si>
+    <t>"We want to be #1 when it comes to customer service and clearly we are missing the mark."</t>
+  </si>
+  <si>
+    <t>"We can only address problems if we are aware of how our interactions are affecting the customer experience. "</t>
+  </si>
+  <si>
+    <t>"Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. "</t>
+  </si>
+  <si>
+    <t>"We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. "</t>
+  </si>
+  <si>
+    <t>"As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. "</t>
+  </si>
+  <si>
+    <t>"Clearly we did not deliver as promised. We are very sorry to have failed you. "</t>
+  </si>
+  <si>
+    <t>"Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "</t>
+  </si>
+  <si>
+    <t>"Please know that your situation was an exception and we won't allow for repeats."</t>
+  </si>
+  <si>
+    <t>"This is not the way we do business and we intend to make amends. "</t>
+  </si>
+  <si>
+    <t>"It is more than clear that we failed you in more ways than one. "</t>
+  </si>
+  <si>
+    <t>"We are so sorry we did not resolve the issue on the spot. That is our policy and we failed to stick to it. "</t>
+  </si>
+  <si>
+    <t>"You deserve better and we intend to right this wrong.  "</t>
+  </si>
+  <si>
+    <t>"Please receive my most sincere apologies for this matter and know that I am looking into the issue. "</t>
+  </si>
+  <si>
+    <t>"We have addressed the issue internally and have rolled out training to ensure it does not happen again. "</t>
+  </si>
+  <si>
+    <t>"Apologies are not enough. I take full responsibility for the actions and attitudes of our staff and I have already addressed the issue internally. "</t>
+  </si>
+  <si>
+    <t>"What you experienced is not acceptable and we are working to correct it ASAP. "</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time to bring up these issues via your review. We are looking into it and have spoken to the staff members involved. "</t>
+  </si>
+  <si>
+    <t>"We will take your feedback into account as we work toward improving the way we do business. "</t>
+  </si>
+  <si>
+    <t>"Clearly this time around that was not the case and for that we are sincerely sorry. "</t>
+  </si>
+  <si>
+    <t>"Rest assured we will address the matter internally, but we also want to make sure we have done everything in our hands to take care of you. "</t>
+  </si>
+  <si>
+    <t>"We have implemented corrective measures regarding the issues you escalated. "</t>
+  </si>
+  <si>
+    <t>"We are looking into the root cause of the problem that we may correct it company-wide. "</t>
+  </si>
+  <si>
+    <t>"Thank you for letting us know about this problem. We really want to fix it. "</t>
+  </si>
+  <si>
+    <t>"Our policy is to deliver 100% customer satisfaction. Please give us a chance to fix it. "</t>
+  </si>
+  <si>
+    <t>["Please know that your situation was an exception and we won't allow for repeat. ", "This is not the way we do business and we intend to make amends. ", "It is more than clear that we failed you in more ways than one. ", "We are so sorry we did not resolve the issue on the spot. That is our policy and we failed to stick to it. ", "You deserve better and we intend to right this wrong.  ", "Please receive my most sincere apologies for this matter and know that I am looking into the issue. ", "We have addressed the issue internally and have rolled out training to ensure it does not happen again. ", "Apologies are not enough. I take full responsibility for the actions and attitudes of our staff and I have already addressed the issue internally. ", "What you experienced is not acceptable and we are working to correct it ASAP. ", "Thank you for taking the time to bring up these issues via your review. We are looking into it and have spoken to the staff members involved. ", "We will take your feedback into account as we work toward improving the way we do business. ", "Clearly this time around that was not the case and for that we are sincerely sorry. ", "Rest assured we will address the matter internally, but we also want to make sure we have done everything in our hands to take care of you. ", "We have implemented corrective measures regarding the issues you escalated. ", "We are looking into the root cause of the problem that we may correct it company-wide. ", "Thank you for letting us know about this problem. We really want to fix it. ", "Our policy is to deliver 100% customer satisfaction. Please give us a chance to fix it. "]</t>
+  </si>
+  <si>
+    <t>"It is thanks to feedback like yours that we can tackle issues that may impact our most valuable asset; our customers. "</t>
+  </si>
+  <si>
+    <t>"Everyone should receive what they paid for. That is our commitment to every one of our customers. "</t>
+  </si>
+  <si>
+    <t>"As you can see on other reviews, we are known for taking ownership and caring deeply for our customers. "</t>
+  </si>
+  <si>
+    <t>"In the future please don't hesitate to ask for our manager on duty. He will take care of you right away. "</t>
+  </si>
+  <si>
+    <t>"Internally, we are already investigating the matter and looking for ways to ensure this does not happen again. "</t>
+  </si>
+  <si>
+    <t>"Once I get to the root of the problem I will tackle it as first priority to make certain we are delivering first class customer service. "</t>
+  </si>
+  <si>
+    <t>"Would you please allow me a few minutes of your time via phone? I would like a chance to secure more details and the opportunity to make amends. "</t>
+  </si>
+  <si>
+    <t>"Give us another chance. We will not dissapoint. "</t>
+  </si>
+  <si>
+    <t>"Every customer deserves seamless customer service delivered with enthusiasm, accuracy and kindness. "</t>
+  </si>
+  <si>
+    <t>"We realize you have options and would like to have a second chance to show you what we are capable of doing. "</t>
+  </si>
+  <si>
+    <t>"We would appreciate the opportunity to make this right, but can only do so if you give us a second chance. "</t>
+  </si>
+  <si>
+    <t>"I am looking into the situation and taking the necessary steps to correct it going forward. "</t>
+  </si>
+  <si>
+    <t>"Our goal and commitment is to deliver 100% customer satisfaction. Nothing else will do. "</t>
+  </si>
+  <si>
+    <t>"We have a culture of constant improvement and feedback like yours helps us shape the way we do things. "</t>
+  </si>
+  <si>
+    <t>"We also want to take care of you and personally apologize. "</t>
+  </si>
+  <si>
+    <t>"You are valuable to us and we would love to have the chance to keep you among our most valued customers. "</t>
+  </si>
+  <si>
+    <t>"You can stop by or give us a call. We will be happy to help you resolve this matter. "</t>
+  </si>
+  <si>
+    <t>"You are our first priority. Please let us earn your business and your trust. "</t>
+  </si>
+  <si>
+    <t>["It is thanks to feedback like yours that we can tackle issues that may impact our most valuable asset; our customers. ", "Everyone should receive what they paid for. That is our commitment to every one of our customers. ", "As you can see on other reviews, we are known for taking ownership and caring deeply for our customers. ", "In the future please don't hesitate to ask for our manager on duty. He will take care of you right away. ", "Internally, we are already investigating the matter and looking for ways to ensure this does not happen again. ", "Once I get to the root of the problem I will tackle it as first priority to make certain we are delivering first class customer service. ", "Would you please allow me a few minutes of your time via phone? I would like a chance to secure more details and the opportunity to make amends. ", "Give us another chance. We will not dissapoint. ", "Every customer deserves seamless customer service delivered with enthusiasm, accuracy and kindness. ", "We realize you have options and would like to have a second chance to show you what we are capable of doing. ", "We would appreciate the opportunity to make this right, but can only do so if you give us a second chance. ", "I am looking into the situation and taking the necessary steps to correct it going forward. ", "We have a culture of constant improvement and feedback like yours helps us shape the way we do things. ", "We also want to take care of you and personally apologize. ", "You are valuable to us and we would love to have the chance to keep you among our most valued customers. ", "You can stop by or give us a call. We will be happy to help you resolve this matter. ", "You are our first priority. Please let us earn your business and your trust. "]</t>
+  </si>
+  <si>
+    <t>"Please allow us an opportunity to make amends and receive our most sincere apologies. You can contact me directly at  "</t>
+  </si>
+  <si>
+    <t>"We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at  "</t>
+  </si>
+  <si>
+    <t>" or by calling us on our main telephone. "</t>
+  </si>
+  <si>
+    <t>"We are looking into this issue and hope to resolve it promptly and accurately. We have reached out to you via email, but if you need to contact us sooner please feel free to contact me at "</t>
+  </si>
+  <si>
+    <t>" and we'll do our best to make it right. "</t>
+  </si>
+  <si>
+    <t>" or feel free to call us on our main line. "</t>
+  </si>
+  <si>
+    <t>"We want your business and will do whatever it takes to earn it back. You have our promise. Please reach out to me via email "</t>
+  </si>
+  <si>
+    <t>" so I can make sure we take care of you. "</t>
+  </si>
+  <si>
+    <t>"Would you please reach out to me at your leisure via email at"</t>
+  </si>
+  <si>
+    <t>"and I will personally make sure we take care of you."</t>
+  </si>
+  <si>
+    <t>If you need to contact me to discuss further please reach out to me via email at "</t>
+  </si>
+  <si>
+    <t>"and I will be delighted to assist you. "</t>
+  </si>
+  <si>
+    <t>"or by phone using our main phone number. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I can be reached via email at " </t>
+  </si>
+  <si>
+    <t>"I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at "</t>
+  </si>
+  <si>
+    <t>"We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at "</t>
+  </si>
+  <si>
+    <t>"as I would love to talk to you and find a way to remedy the situation. "</t>
+  </si>
+  <si>
+    <t>"Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at "</t>
+  </si>
+  <si>
+    <t>"so that I can personally resolve this problem to your satisfation. "</t>
+  </si>
+  <si>
+    <t>"Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at "</t>
+  </si>
+  <si>
+    <t>"or by phone. I am available to discuss this matter at your leisure. "</t>
+  </si>
+  <si>
+    <t>"or by phone. Until then, please receive my most sincere apologies on behalf of everyone in the team. "</t>
+  </si>
+  <si>
+    <t>"When you have a free moment kindly reach out to me via email at "</t>
+  </si>
+  <si>
+    <t>"I will do whatever I can to resolve this matter to your satisfaction. "</t>
+  </si>
+  <si>
+    <t>"We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email  "</t>
+  </si>
+  <si>
+    <t>"We want you to be satisfied with your transaction. Please contact me at "</t>
+  </si>
+  <si>
+    <t>" or by phone so we can chat. "</t>
+  </si>
+  <si>
+    <t>"and I will do whatever I can to resolve this matter to your satisfaction. "</t>
+  </si>
+  <si>
+    <t>" I am ready to help you at any time. You can reach me via phone or by email at "</t>
+  </si>
+  <si>
+    <t>"so let's take care of this matter. "</t>
+  </si>
+  <si>
+    <t>" and let us take care of this. "</t>
+  </si>
+  <si>
+    <t>"I look forward to chatting with you and finding a way to resolve your issue."</t>
+  </si>
+  <si>
+    <t>"Yours,"</t>
+  </si>
+  <si>
+    <t>"Respectfully yours,"</t>
+  </si>
+  <si>
+    <t>"Looking forward to your call,"</t>
+  </si>
+  <si>
+    <t>"With my most sincere apologies,"</t>
+  </si>
+  <si>
+    <t>"Sincerely yours,"</t>
+  </si>
+  <si>
+    <t>"Respectfully at your service,"</t>
+  </si>
+  <si>
+    <t>"Looking forward to meeting you in person,"</t>
+  </si>
+  <si>
+    <t>"Thanks again for your honest feedback,"</t>
+  </si>
+  <si>
+    <t>"Your friend,"</t>
+  </si>
+  <si>
+    <t>"Kind Regards,"</t>
+  </si>
+  <si>
+    <t>"On behalf of our team,"</t>
+  </si>
+  <si>
+    <t>"Looking forward to helping you out,"</t>
+  </si>
+  <si>
+    <t>"Cordial Regards,"</t>
+  </si>
+  <si>
+    <t>[" Thank you for reaching out to us and letting us know we dropped the ball", "We are truly sorry your experience was not to your satisfaction", "Please allow me to apologize on behalf of everyone here" ,"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business", "We are sad to hear we did not provide you with the best possible experience", "As the person in charge of staffing and customer service I am very dissapointed that we failed you", "Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you", "On reading your review I cannot help it but feel responsible for having dropped the ball", "Thank you for taking the time to point out personnel issues affecting our business", "It seems we have failed to serve you the way you deserve. That is unacceptable", "We are sad to hear things did not go as expected", "From what we can see your experience was not reflective of our brand. We are really sorry for that", "It saddens me to hear about your experience", "I wanted to personally thank you for taking the time to provide feedback about your experience with us", "It seems we had a disconnect and clearly dropped the ball", "Communications are essential to a good experience and somehow we managed to fail you in this area",  "Thank you for taking the time out of your busy day to let us know about this"]</t>
+  </si>
+  <si>
+    <t>[" or by calling us on our main telephone. ", " and we'll do our best to make it right. ", " or feel free to call us on our main line. ", " so I can make sure we take care of you. ", "and I will personally make sure we take care of you.", "and I will be delighted to assist you. ", "or by phone using our main phone number. ", "as I would love to talk to you and find a way to remedy the situation. ", "so that I can personally resolve this problem to your satisfation. ", "or by phone. Until then, please receive my most sincere apologies on behalf of everyone in the team. ", "or by phone. I am available to discuss this matter at your leisure. ", "I will do whatever I can to resolve this matter to your satisfaction. ", " or by phone so we can chat. ", "and I will do whatever I can to resolve this matter to your satisfaction. ", "so let's take care of this matter. ", " and let us take care of this. "]</t>
+  </si>
+  <si>
+    <t>["Our goal is customer satisfaction and we clearly failed to deliver. ", "We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. ", "We love what we do and we want for every customer to have the best possible experience. ", "Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. ", "We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. ", "Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. ", "Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. ", "We want to be #1 when it comes to customer service and clearly we are missing the mark.", "We can only address problems if we are aware of how our interactions are affecting the customer experience. ", "Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. ", "We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. ", "From the moment you walk into our business it is our responsibility to give you the best possible experience and deliver what we promised. ", "As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. ", "Clearly we did not deliver as promised. We are very sorry to have failed you. ", "Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "]</t>
+  </si>
+  <si>
+    <t>"Thank you for taking the time to provide us with honest &amp; balanced feedback"</t>
+  </si>
+  <si>
+    <t>"I want to take a moment to thank you for your candid feedback"</t>
+  </si>
+  <si>
+    <t>"I just read your review and wanted to follow up"</t>
+  </si>
+  <si>
+    <t>"I wanted to personally thank you for taking the time to provide us with valuable feedback"</t>
+  </si>
+  <si>
+    <t>"We want every customer to have a five star experience but sometimes things don't go as planned"</t>
+  </si>
+  <si>
+    <t>"Thank you for bringing these issues to our attention"</t>
+  </si>
+  <si>
+    <t>"We are sincerely sorry your experience was not up to par"</t>
+  </si>
+  <si>
+    <t>"Our business needs feedback from valuable customers"</t>
+  </si>
+  <si>
+    <t>"It appears your recent visit was not quite like you expected"</t>
+  </si>
+  <si>
+    <t>["Thank you for taking the time to provide us with honest &amp; balanced feedback", "I want to take a moment to thank you for your candid feedback", "I just read your review and wanted to follow up", "I wanted to personally thank you for taking the time to provide us with valuable feedback", "We want every customer to have a five star experience but sometimes things don't go as planned", "Thank you for bringing these issues to our attention", "We are sincerely sorry your experience was not up to par", "Our business needs feedback from valuable customers", "It appears your recent visit was not quite like you expected"]</t>
+  </si>
+  <si>
+    <t>"We are constantly working on ways to deliver customer experiences that exceed expectations. "</t>
+  </si>
+  <si>
+    <t>"Our goal is to gain your trust and endorsment and we take your opinion seriously. "</t>
+  </si>
+  <si>
+    <t>"We are thankful for your business and the feedback you have so generously provided. "</t>
+  </si>
+  <si>
+    <t>"Both accolades and critiques aid us in making sure we are in the right path. "</t>
+  </si>
+  <si>
+    <t>"Thank you for kindly pointing out where we are dropping the ball. "</t>
+  </si>
+  <si>
+    <t>"Feedback like yours is at the very heart of learning how to deliver ever-improving customer experiences. "</t>
+  </si>
+  <si>
+    <t>"We are glad to know that we were still able to do a few things with the excellence we are known for but that is not quite enough! "</t>
+  </si>
+  <si>
+    <t>"We are grateful you took the time to let us know both our weaknesses and our fortes. "</t>
+  </si>
+  <si>
+    <t>["We are constantly working on ways to deliver customer experiences that exceed expectations. ", "Our goal is to gain your trust and endorsment and we take your opinion seriously. ", "We are thankful for your business and the feedback you have so generously provided. ", "Both accolades and critiques aid us in making sure we are in the right path. ", "Thank you for kindly pointing out where we are dropping the ball. ", "Feedback like yours is at the very heart of learning how to deliver ever-improving customer experiences. ", "We are glad to know that we were still able to do a few things with the excellence we are known for but that is not quite enough! ", "We are grateful you took the time to let us know both our weaknesses and our fortes. ", "Thank you for bringing these issues to our attention, and for giving us kind words of encouragement. "]</t>
+  </si>
+  <si>
+    <t>"Thank you for bringing these issues to our attention, and for giving us kind words of encouragement. "</t>
+  </si>
+  <si>
+    <t>"It looks like we were not up to par in some areas and for that we apologize. "</t>
+  </si>
+  <si>
+    <t>"We have forwarded your concerns to the appropriate departments and will most certainly follow up. "</t>
+  </si>
+  <si>
+    <t>"Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. "</t>
+  </si>
+  <si>
+    <t>"Our commitment is to customer excellence every single transaction. "</t>
+  </si>
+  <si>
+    <t>"We are sorry this time around we did not deliver as planned. "</t>
+  </si>
+  <si>
+    <t>"Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. "</t>
+  </si>
+  <si>
+    <t>"We are constantly looking for ways to improve our business and it is thanks to feedback like yours that we have made the most impactful changes. "</t>
+  </si>
+  <si>
+    <t>"We are thankful for your kind words and encouragement. "</t>
+  </si>
+  <si>
+    <t>"We are glad we were able to serve you! "</t>
+  </si>
+  <si>
+    <t>"Please let us know when you are coming again. "</t>
+  </si>
+  <si>
+    <t>"We take your concerns seriously and we are working on ways to make sure everything we do is customer-centric. "</t>
+  </si>
+  <si>
+    <t>"We have forwarded your concerns as well as congratulatory words to every manager involved. "</t>
+  </si>
+  <si>
+    <t>"Please give us another chance to show you what we are capable of doing. "</t>
+  </si>
+  <si>
+    <t>"Do let us make amends next time you visit us. "</t>
+  </si>
+  <si>
+    <t>"We want you to be delighted by what we do. "</t>
+  </si>
+  <si>
+    <t>"We want for every customer to experience our best. "</t>
+  </si>
+  <si>
+    <t>["We are thankful for your kind words and encouragement. ", "We are glad we were able to serve you! ", "Please let us know when you are coming again. ", "We take your concerns seriously and we are working on ways to make sure everything we do is customer-centric. ", "We have forwarded your concerns as well as congratulatory words to every manager involved. ", "Please give us another chance to show you what we are capable of doing. ", "Do let us make amends next time you visit us. ", "We want you to be delighted by what we do. ", "We want for every customer to experience our best. "]</t>
+  </si>
+  <si>
+    <t>"We are listening to our customers each and every time. Your feedback will help us shape what we do. "</t>
+  </si>
+  <si>
+    <t>"We realize you have many options and we are thankful you care enough to give us information that helps shape our business. "</t>
+  </si>
+  <si>
+    <t>"We will try our best to deliver a customer experience worth bragging about. "</t>
+  </si>
+  <si>
+    <t>"Your words of encouragement and appreciation are also very valuable to everyone here. "</t>
+  </si>
+  <si>
+    <t>"We hope to have the honor of your visit soon, that we may show you a new and improved customer experience. "</t>
+  </si>
+  <si>
+    <t>"We can't wait to have the opportunity of doing business with you once again. "</t>
+  </si>
+  <si>
+    <t>"Know that you are valuable to us and we take your feedback seriously. "</t>
+  </si>
+  <si>
+    <t>"Please let us have another chance to prove ourselves. "</t>
+  </si>
+  <si>
+    <t>"Your feedback is helping us shape our business into something we are proud of owning. "</t>
+  </si>
+  <si>
+    <t>["We are listening to our customers each and every time. Your feedback will help us shape what we do. ", "We realize you have many options and we are thankful you care enough to give us information that helps shape our business. ", "We will try our best to deliver a customer experience worth bragging about. ", "Your words of encouragement and appreciation are also very valuable to everyone here. ", "We hope to have the honor of your visit soon, that we may show you a new and improved customer experience. ", "We can't wait to have the opportunity of doing business with you once again. ", "We can't wait to have the opportunity of doing business with you once again. ", "Know that you are valuable to us and we take your feedback seriously. ", "Please let us have another chance to prove ourselves. ", "Your feedback is helping us shape our business into something we are proud of owning. "]</t>
+  </si>
+  <si>
+    <t>"We hope to see you soon and we are confident your experience will be worthy of a five star review. If you have further suggestions, please contact me at "</t>
+  </si>
+  <si>
+    <t>"If I can help you in any way please reach out to me via email at "</t>
+  </si>
+  <si>
+    <t>"In the interim please contact me if I can further assist you. My email is: "</t>
+  </si>
+  <si>
+    <t>"Do visit us once again. It will be our pleasure to serve you. In the meantime, please don't hesitate to reach out to me at "</t>
+  </si>
+  <si>
+    <t>"Your friendship and patronage is very important to us, and further comments can be emailed to me at "</t>
+  </si>
+  <si>
+    <t>"Know that we will do everything in our power to truly earn your business and your loyalty, and further suggestions can be sent to us at "</t>
+  </si>
+  <si>
+    <t>"Thanks again for giving us the opportunity to serve you. Please send any additional feedback to us at "</t>
+  </si>
+  <si>
+    <t>"We promise to delight you and yours by trying our very best. Specific suggestions are welcome at "</t>
+  </si>
+  <si>
+    <t>"We are thankful for your business and look forward to your next visit. In the meantime, please reach out with any further feedback at "</t>
+  </si>
+  <si>
+    <t>"With gratitude,"</t>
+  </si>
+  <si>
+    <t>["With gratitude,", "Respectfully,", "At your service,", "Kindly,", "Yours,", "On behalf of our team,", "Kind Regards,", "With gratitude,"]</t>
+  </si>
+  <si>
+    <t>"We remain committed to you. Please email me at "</t>
+  </si>
+  <si>
+    <t>["Please allow us an opportunity to make amends and extend our most sincere apologies. You can contact me directly at  ", "We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at   ", "We are looking into this issue and hope to resolve it promptly and accurately. ", "We want your business and will do whatever it takes to earn it back. You have our promise. ", "Would you please reach out to me at your leisure via email at ","If you need to contact me to discuss further please reach out to me via email at ", "I can be reached via email at ", "I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at ", "We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at ", "Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at ", "Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at ", "We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email at ", "When you have a free moment kindly reach out to me via email at ", "We want you to be satisfied with your transaction. Please contact me at ", "When you have a free moment kindly reach out to me via email at ", " I am ready to help you at any time. You can reach me via phone or by email at ", "We remain committed to you. Please email me at "]</t>
+  </si>
+  <si>
+    <t>"Everyone in our company is committed to the highest levels of quality. "</t>
+  </si>
+  <si>
+    <t>"While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. "</t>
+  </si>
+  <si>
+    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is committed to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", ]</t>
+  </si>
+  <si>
+    <t>"Committed to excellence in service,"</t>
+  </si>
+  <si>
+    <t>["I look forward to chatting with you and finding a way to resolve your issue.", "Yours,", "Respectfully yours,", "Kindly,", "Looking forward to your call,", "Kindest Regards,", "At your service,", "With my most sincere apologies,", "Sincerely yours,", "Committed to excellence in service,","Respectfully at your service,", "Thanks again for your honest feedback,", "Kind Regards,", "On behalf of our team,"]</t>
+  </si>
+  <si>
+    <t>["We hope to see you soon and we are confident your experience will be worthy of a five star review. If you have further suggestions, please contact me at ", "If I can help you in any way please reach out to me via email at ", "In the interim please contact me if I can further assist you. My email is: ", "Do visit us once again. It will be our pleasure to serve you. In the meantime, please don't hesitate to reach out to me at ", "Your friendship and patronage is very important to us, and further comments can be emailed to me at ", "Know that we will do everything in our power to truly earn your business and your loyalty, and further suggestions can be sent to us at ", "Thanks again for giving us the opportunity to serve you. Please send any additional feedback to us at ", "We promise to delight you and yours by trying our very best. Specific suggestions are welcome at ", "We are thankful for your business and look forward to your next visit. In the meantime, please reach out with any further feedback at "]</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">["Until Next Time,", "Warm Regards,", "Sincerely,", "Your friends,", "Respectfully,", "Kindly,", "At your service,", </t>
     </r>
@@ -729,7 +1281,9 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">"Best,", "With Gratitude,", "On behalf of the team,", "Best Regards,", "On behalf of everyone here,", </t>
     </r>
@@ -737,569 +1291,26 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "With appreciation,", "Please join us again,", "Can't wait to serve you again,", "Looking forward to your next visit,"]</t>
     </r>
-  </si>
-  <si>
-    <t>"Come visit us soon. You can count on every one of us doing our best! "</t>
-  </si>
-  <si>
-    <t>["Your opinion also empowers other people in the community to connect with us and enjoy all the services we currently provide. ", "Our brand promise is all about delivering seamless experiences that exceed customer expectations! ", "Thank you once again for giving us a pat on the back. We value your patronage and friendship. ", "We are honored by your choice to do business with us, and look forward to your next visit. ", "We will be sharing your review with the team as a way to encourage them to continue to strive for excellence in customer service. ", "We know that you have options and are very honored that you selected us and proud to have served you. ", "Please visit us again. ", "Please remember that we remain committed to be the best in the industry, that we may gain your business time after time. ", "We will be sure to share your review with our team on our next staff meeting. ", "Come visit us soon. You can count on every one of us doing our best! ", "We hope you give us the opportunity to connect with you again. ", "We look forward to your next visit and will once again work hard to earn your endorsement. ",  "Know that are thankful for the trust you have placed on us. Know that we are working extra hard to always push ourselves to the next level. ", "We hope you make us part of your traditions and we have the privilege to serve you for many years to come. ", "Please don't make it a once in a lifetime! ", "We hope to become one of your favorites. Do let us know what we need to do to earn your continued loyalty. ", "We invite you to join us again. You can count on us to pour our hearts out and try our best to make your experience one worth bragging about. ", "We hope you give us the opportunity to serve you again. Rest assured we will do whatever it takes to deliver on our promise. "]</t>
-  </si>
-  <si>
-    <t>" Thank you for reaching out to us and letting us know we dropped the ball"</t>
-  </si>
-  <si>
-    <t>"We are truly sorry your experience was not to your satisfaction"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Please allow me to apologize on behalf of everyone here" </t>
-  </si>
-  <si>
-    <t>"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business"</t>
-  </si>
-  <si>
-    <t>"We are sad to hear we did not provide you with the best possible experience"</t>
-  </si>
-  <si>
-    <t>"As the person in charge of staffing and customer service I am very dissapointed that we failed you"</t>
-  </si>
-  <si>
-    <t>"Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you"</t>
-  </si>
-  <si>
-    <t>"On reading your review I cannot help it but feel responsible for having dropped the ball"</t>
-  </si>
-  <si>
-    <t>"Thank you for taking the time to point out personnel issues affecting our business"</t>
-  </si>
-  <si>
-    <t>"It seems we have failed to serve you the way you deserve. That is unacceptable"</t>
-  </si>
-  <si>
-    <t>"We are sad to hear things did not go as expected"</t>
-  </si>
-  <si>
-    <t>"From what we can see your experience was not reflective of our brand. We are really sorry for that"</t>
-  </si>
-  <si>
-    <t>"It saddens me to hear about your experience"</t>
-  </si>
-  <si>
-    <t>"I wanted to personally thank you for taking the time to provide feedback about your experience with us"</t>
-  </si>
-  <si>
-    <t>"It seems we had a disconnect and clearly dropped the ball"</t>
-  </si>
-  <si>
-    <t>"Communications are essential to a good experience and somehow we managed to fail you in this area"</t>
-  </si>
-  <si>
-    <t>"Thank you for taking the time out of your busy day to let us know about this"</t>
-  </si>
-  <si>
-    <t>"Our goal is customer satisfaction and we clearly failed to deliver. "</t>
-  </si>
-  <si>
-    <t>"We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. "</t>
-  </si>
-  <si>
-    <t>"We love what we do and we want for every customer to have the best possible experience. "</t>
-  </si>
-  <si>
-    <t>"Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. "</t>
-  </si>
-  <si>
-    <t>"We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. "</t>
-  </si>
-  <si>
-    <t>"Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. "</t>
-  </si>
-  <si>
-    <t>"Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. "</t>
-  </si>
-  <si>
-    <t>"We want to be #1 when it comes to customer service and clearly we are missing the mark."</t>
-  </si>
-  <si>
-    <t>"We can only address problems if we are aware of how our interactions are affecting the customer experience. "</t>
-  </si>
-  <si>
-    <t>"Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. "</t>
-  </si>
-  <si>
-    <t>"We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. "</t>
-  </si>
-  <si>
-    <t>"As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. "</t>
-  </si>
-  <si>
-    <t>"Clearly we did not deliver as promised. We are very sorry to have failed you. "</t>
-  </si>
-  <si>
-    <t>"Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "</t>
-  </si>
-  <si>
-    <t>"Please know that your situation was an exception and we won't allow for repeats."</t>
-  </si>
-  <si>
-    <t>"This is not the way we do business and we intend to make amends. "</t>
-  </si>
-  <si>
-    <t>"It is more than clear that we failed you in more ways than one. "</t>
-  </si>
-  <si>
-    <t>"We are so sorry we did not resolve the issue on the spot. That is our policy and we failed to stick to it. "</t>
-  </si>
-  <si>
-    <t>"You deserve better and we intend to right this wrong.  "</t>
-  </si>
-  <si>
-    <t>"Please receive my most sincere apologies for this matter and know that I am looking into the issue. "</t>
-  </si>
-  <si>
-    <t>"We have addressed the issue internally and have rolled out training to ensure it does not happen again. "</t>
-  </si>
-  <si>
-    <t>"Apologies are not enough. I take full responsibility for the actions and attitudes of our staff and I have already addressed the issue internally. "</t>
-  </si>
-  <si>
-    <t>"What you experienced is not acceptable and we are working to correct it ASAP. "</t>
-  </si>
-  <si>
-    <t>"Thank you for taking the time to bring up these issues via your review. We are looking into it and have spoken to the staff members involved. "</t>
-  </si>
-  <si>
-    <t>"We will take your feedback into account as we work toward improving the way we do business. "</t>
-  </si>
-  <si>
-    <t>"Clearly this time around that was not the case and for that we are sincerely sorry. "</t>
-  </si>
-  <si>
-    <t>"Rest assured we will address the matter internally, but we also want to make sure we have done everything in our hands to take care of you. "</t>
-  </si>
-  <si>
-    <t>"We have implemented corrective measures regarding the issues you escalated. "</t>
-  </si>
-  <si>
-    <t>"We are looking into the root cause of the problem that we may correct it company-wide. "</t>
-  </si>
-  <si>
-    <t>"Thank you for letting us know about this problem. We really want to fix it. "</t>
-  </si>
-  <si>
-    <t>"Our policy is to deliver 100% customer satisfaction. Please give us a chance to fix it. "</t>
-  </si>
-  <si>
-    <t>["Please know that your situation was an exception and we won't allow for repeat. ", "This is not the way we do business and we intend to make amends. ", "It is more than clear that we failed you in more ways than one. ", "We are so sorry we did not resolve the issue on the spot. That is our policy and we failed to stick to it. ", "You deserve better and we intend to right this wrong.  ", "Please receive my most sincere apologies for this matter and know that I am looking into the issue. ", "We have addressed the issue internally and have rolled out training to ensure it does not happen again. ", "Apologies are not enough. I take full responsibility for the actions and attitudes of our staff and I have already addressed the issue internally. ", "What you experienced is not acceptable and we are working to correct it ASAP. ", "Thank you for taking the time to bring up these issues via your review. We are looking into it and have spoken to the staff members involved. ", "We will take your feedback into account as we work toward improving the way we do business. ", "Clearly this time around that was not the case and for that we are sincerely sorry. ", "Rest assured we will address the matter internally, but we also want to make sure we have done everything in our hands to take care of you. ", "We have implemented corrective measures regarding the issues you escalated. ", "We are looking into the root cause of the problem that we may correct it company-wide. ", "Thank you for letting us know about this problem. We really want to fix it. ", "Our policy is to deliver 100% customer satisfaction. Please give us a chance to fix it. "]</t>
-  </si>
-  <si>
-    <t>"It is thanks to feedback like yours that we can tackle issues that may impact our most valuable asset; our customers. "</t>
-  </si>
-  <si>
-    <t>"Everyone should receive what they paid for. That is our commitment to every one of our customers. "</t>
-  </si>
-  <si>
-    <t>"As you can see on other reviews, we are known for taking ownership and caring deeply for our customers. "</t>
-  </si>
-  <si>
-    <t>"In the future please don't hesitate to ask for our manager on duty. He will take care of you right away. "</t>
-  </si>
-  <si>
-    <t>"Internally, we are already investigating the matter and looking for ways to ensure this does not happen again. "</t>
-  </si>
-  <si>
-    <t>"Once I get to the root of the problem I will tackle it as first priority to make certain we are delivering first class customer service. "</t>
-  </si>
-  <si>
-    <t>"Would you please allow me a few minutes of your time via phone? I would like a chance to secure more details and the opportunity to make amends. "</t>
-  </si>
-  <si>
-    <t>"Give us another chance. We will not dissapoint. "</t>
-  </si>
-  <si>
-    <t>"Every customer deserves seamless customer service delivered with enthusiasm, accuracy and kindness. "</t>
-  </si>
-  <si>
-    <t>"We realize you have options and would like to have a second chance to show you what we are capable of doing. "</t>
-  </si>
-  <si>
-    <t>"We would appreciate the opportunity to make this right, but can only do so if you give us a second chance. "</t>
-  </si>
-  <si>
-    <t>"I am looking into the situation and taking the necessary steps to correct it going forward. "</t>
-  </si>
-  <si>
-    <t>"Our goal and commitment is to deliver 100% customer satisfaction. Nothing else will do. "</t>
-  </si>
-  <si>
-    <t>"We have a culture of constant improvement and feedback like yours helps us shape the way we do things. "</t>
-  </si>
-  <si>
-    <t>"We also want to take care of you and personally apologize. "</t>
-  </si>
-  <si>
-    <t>"You are valuable to us and we would love to have the chance to keep you among our most valued customers. "</t>
-  </si>
-  <si>
-    <t>"You can stop by or give us a call. We will be happy to help you resolve this matter. "</t>
-  </si>
-  <si>
-    <t>"You are our first priority. Please let us earn your business and your trust. "</t>
-  </si>
-  <si>
-    <t>["It is thanks to feedback like yours that we can tackle issues that may impact our most valuable asset; our customers. ", "Everyone should receive what they paid for. That is our commitment to every one of our customers. ", "As you can see on other reviews, we are known for taking ownership and caring deeply for our customers. ", "In the future please don't hesitate to ask for our manager on duty. He will take care of you right away. ", "Internally, we are already investigating the matter and looking for ways to ensure this does not happen again. ", "Once I get to the root of the problem I will tackle it as first priority to make certain we are delivering first class customer service. ", "Would you please allow me a few minutes of your time via phone? I would like a chance to secure more details and the opportunity to make amends. ", "Give us another chance. We will not dissapoint. ", "Every customer deserves seamless customer service delivered with enthusiasm, accuracy and kindness. ", "We realize you have options and would like to have a second chance to show you what we are capable of doing. ", "We would appreciate the opportunity to make this right, but can only do so if you give us a second chance. ", "I am looking into the situation and taking the necessary steps to correct it going forward. ", "We have a culture of constant improvement and feedback like yours helps us shape the way we do things. ", "We also want to take care of you and personally apologize. ", "You are valuable to us and we would love to have the chance to keep you among our most valued customers. ", "You can stop by or give us a call. We will be happy to help you resolve this matter. ", "You are our first priority. Please let us earn your business and your trust. "]</t>
-  </si>
-  <si>
-    <t>"Please allow us an opportunity to make amends and receive our most sincere apologies. You can contact me directly at  "</t>
-  </si>
-  <si>
-    <t>"We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at  "</t>
-  </si>
-  <si>
-    <t>" or by calling us on our main telephone. "</t>
-  </si>
-  <si>
-    <t>"We are looking into this issue and hope to resolve it promptly and accurately. We have reached out to you via email, but if you need to contact us sooner please feel free to contact me at "</t>
-  </si>
-  <si>
-    <t>" and we'll do our best to make it right. "</t>
-  </si>
-  <si>
-    <t>" or feel free to call us on our main line. "</t>
-  </si>
-  <si>
-    <t>"We want your business and will do whatever it takes to earn it back. You have our promise. Please reach out to me via email "</t>
-  </si>
-  <si>
-    <t>" so I can make sure we take care of you. "</t>
-  </si>
-  <si>
-    <t>"Would you please reach out to me at your leisure via email at"</t>
-  </si>
-  <si>
-    <t>"and I will personally make sure we take care of you."</t>
-  </si>
-  <si>
-    <t>If you need to contact me to discuss further please reach out to me via email at "</t>
-  </si>
-  <si>
-    <t>"and I will be delighted to assist you. "</t>
-  </si>
-  <si>
-    <t>"or by phone using our main phone number. "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I can be reached via email at " </t>
-  </si>
-  <si>
-    <t>"I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at "</t>
-  </si>
-  <si>
-    <t>"We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at "</t>
-  </si>
-  <si>
-    <t>"as I would love to talk to you and find a way to remedy the situation. "</t>
-  </si>
-  <si>
-    <t>"Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at "</t>
-  </si>
-  <si>
-    <t>"so that I can personally resolve this problem to your satisfation. "</t>
-  </si>
-  <si>
-    <t>"Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at "</t>
-  </si>
-  <si>
-    <t>"or by phone. I am available to discuss this matter at your leisure. "</t>
-  </si>
-  <si>
-    <t>"or by phone. Until then, please receive my most sincere apologies on behalf of everyone in the team. "</t>
-  </si>
-  <si>
-    <t>"When you have a free moment kindly reach out to me via email at "</t>
-  </si>
-  <si>
-    <t>"I will do whatever I can to resolve this matter to your satisfaction. "</t>
-  </si>
-  <si>
-    <t>"We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email  "</t>
-  </si>
-  <si>
-    <t>"We want you to be satisfied with your transaction. Please contact me at "</t>
-  </si>
-  <si>
-    <t>" or by phone so we can chat. "</t>
-  </si>
-  <si>
-    <t>"and I will do whatever I can to resolve this matter to your satisfaction. "</t>
-  </si>
-  <si>
-    <t>" I am ready to help you at any time. You can reach me via phone or by email at "</t>
-  </si>
-  <si>
-    <t>"so let's take care of this matter. "</t>
-  </si>
-  <si>
-    <t>" and let us take care of this. "</t>
-  </si>
-  <si>
-    <t>"I look forward to chatting with you and finding a way to resolve your issue."</t>
-  </si>
-  <si>
-    <t>"Yours,"</t>
-  </si>
-  <si>
-    <t>"Respectfully yours,"</t>
-  </si>
-  <si>
-    <t>"Looking forward to your call,"</t>
-  </si>
-  <si>
-    <t>"With my most sincere apologies,"</t>
-  </si>
-  <si>
-    <t>"Sincerely yours,"</t>
-  </si>
-  <si>
-    <t>"Respectfully at your service,"</t>
-  </si>
-  <si>
-    <t>"Looking forward to meeting you in person,"</t>
-  </si>
-  <si>
-    <t>"Thanks again for your honest feedback,"</t>
-  </si>
-  <si>
-    <t>"Your friend,"</t>
-  </si>
-  <si>
-    <t>"Kind Regards,"</t>
-  </si>
-  <si>
-    <t>"On behalf of our team,"</t>
-  </si>
-  <si>
-    <t>"Looking forward to helping you out,"</t>
-  </si>
-  <si>
-    <t>"Cordial Regards,"</t>
-  </si>
-  <si>
-    <t>[" Thank you for reaching out to us and letting us know we dropped the ball", "We are truly sorry your experience was not to your satisfaction", "Please allow me to apologize on behalf of everyone here" ,"Thank you for letting us know about this. Feedback helps us tackle issues and become a better business", "We are sad to hear we did not provide you with the best possible experience", "As the person in charge of staffing and customer service I am very dissapointed that we failed you", "Everything that we do is designed to deliver superior customer satisfaction and it appears we have failed you", "On reading your review I cannot help it but feel responsible for having dropped the ball", "Thank you for taking the time to point out personnel issues affecting our business", "It seems we have failed to serve you the way you deserve. That is unacceptable", "We are sad to hear things did not go as expected", "From what we can see your experience was not reflective of our brand. We are really sorry for that", "It saddens me to hear about your experience", "I wanted to personally thank you for taking the time to provide feedback about your experience with us", "It seems we had a disconnect and clearly dropped the ball", "Communications are essential to a good experience and somehow we managed to fail you in this area",  "Thank you for taking the time out of your busy day to let us know about this"]</t>
-  </si>
-  <si>
-    <t>[" or by calling us on our main telephone. ", " and we'll do our best to make it right. ", " or feel free to call us on our main line. ", " so I can make sure we take care of you. ", "and I will personally make sure we take care of you.", "and I will be delighted to assist you. ", "or by phone using our main phone number. ", "as I would love to talk to you and find a way to remedy the situation. ", "so that I can personally resolve this problem to your satisfation. ", "or by phone. Until then, please receive my most sincere apologies on behalf of everyone in the team. ", "or by phone. I am available to discuss this matter at your leisure. ", "I will do whatever I can to resolve this matter to your satisfaction. ", " or by phone so we can chat. ", "and I will do whatever I can to resolve this matter to your satisfaction. ", "so let's take care of this matter. ", " and let us take care of this. "]</t>
-  </si>
-  <si>
-    <t>["Our goal is customer satisfaction and we clearly failed to deliver. ", "We are looking into the issue and doing everything we can to correct it as soon as possible, for you and for future customers. ", "We love what we do and we want for every customer to have the best possible experience. ", "Our leadership is trying to identify why this happened and we will resolve in a way that ensures superior customer experiences now and in the future. ", "We are constantly refining the way we do business and that is only possible thanks to candid feedback like yours. Please know that we are listening. ", "Our commitment is to have staff that prioritizes the needs of the customer and is solution-driven every single time. ", "Lack of focus, carelessness and indifference is not what we are known for. We are sorry your experience was not reflective of our reputation. ", "We want to be #1 when it comes to customer service and clearly we are missing the mark.", "We can only address problems if we are aware of how our interactions are affecting the customer experience. ", "Everyone in our organization is familiar with our mission statement which is focused on making certain our customers come first. ", "We are always hard at work to make sure our team delivers on our brand promise and every customer has a positive experience. ", "From the moment you walk into our business it is our responsibility to give you the best possible experience and deliver what we promised. ", "As you probably know we are known for excellence in all that we do. What happened to you was not acceptable by any means and we are looking into it. ", "Clearly we did not deliver as promised. We are very sorry to have failed you. ", "Our staff is aware of your concern and they are looking into ways that similar issues can be avoided in the future. "]</t>
-  </si>
-  <si>
-    <t>"Thank you for taking the time to provide us with honest &amp; balanced feedback"</t>
-  </si>
-  <si>
-    <t>"I want to take a moment to thank you for your candid feedback"</t>
-  </si>
-  <si>
-    <t>"I just read your review and wanted to follow up"</t>
-  </si>
-  <si>
-    <t>"I wanted to personally thank you for taking the time to provide us with valuable feedback"</t>
-  </si>
-  <si>
-    <t>"We want every customer to have a five star experience but sometimes things don't go as planned"</t>
-  </si>
-  <si>
-    <t>"Thank you for bringing these issues to our attention"</t>
-  </si>
-  <si>
-    <t>"We are sincerely sorry your experience was not up to par"</t>
-  </si>
-  <si>
-    <t>"Our business needs feedback from valuable customers"</t>
-  </si>
-  <si>
-    <t>"It appears your recent visit was not quite like you expected"</t>
-  </si>
-  <si>
-    <t>["Thank you for taking the time to provide us with honest &amp; balanced feedback", "I want to take a moment to thank you for your candid feedback", "I just read your review and wanted to follow up", "I wanted to personally thank you for taking the time to provide us with valuable feedback", "We want every customer to have a five star experience but sometimes things don't go as planned", "Thank you for bringing these issues to our attention", "We are sincerely sorry your experience was not up to par", "Our business needs feedback from valuable customers", "It appears your recent visit was not quite like you expected"]</t>
-  </si>
-  <si>
-    <t>"We are constantly working on ways to deliver customer experiences that exceed expectations. "</t>
-  </si>
-  <si>
-    <t>"Our goal is to gain your trust and endorsment and we take your opinion seriously. "</t>
-  </si>
-  <si>
-    <t>"We are thankful for your business and the feedback you have so generously provided. "</t>
-  </si>
-  <si>
-    <t>"Both accolades and critiques aid us in making sure we are in the right path. "</t>
-  </si>
-  <si>
-    <t>"Thank you for kindly pointing out where we are dropping the ball. "</t>
-  </si>
-  <si>
-    <t>"Feedback like yours is at the very heart of learning how to deliver ever-improving customer experiences. "</t>
-  </si>
-  <si>
-    <t>"We are glad to know that we were still able to do a few things with the excellence we are known for but that is not quite enough! "</t>
-  </si>
-  <si>
-    <t>"We are grateful you took the time to let us know both our weaknesses and our fortes. "</t>
-  </si>
-  <si>
-    <t>["We are constantly working on ways to deliver customer experiences that exceed expectations. ", "Our goal is to gain your trust and endorsment and we take your opinion seriously. ", "We are thankful for your business and the feedback you have so generously provided. ", "Both accolades and critiques aid us in making sure we are in the right path. ", "Thank you for kindly pointing out where we are dropping the ball. ", "Feedback like yours is at the very heart of learning how to deliver ever-improving customer experiences. ", "We are glad to know that we were still able to do a few things with the excellence we are known for but that is not quite enough! ", "We are grateful you took the time to let us know both our weaknesses and our fortes. ", "Thank you for bringing these issues to our attention, and for giving us kind words of encouragement. "]</t>
-  </si>
-  <si>
-    <t>"Thank you for bringing these issues to our attention, and for giving us kind words of encouragement. "</t>
-  </si>
-  <si>
-    <t>"It looks like we were not up to par in some areas and for that we apologize. "</t>
-  </si>
-  <si>
-    <t>"We have forwarded your concerns to the appropriate departments and will most certainly follow up. "</t>
-  </si>
-  <si>
-    <t>"Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. "</t>
-  </si>
-  <si>
-    <t>"Our commitment is to customer excellence every single transaction. "</t>
-  </si>
-  <si>
-    <t>"We are sorry this time around we did not deliver as planned. "</t>
-  </si>
-  <si>
-    <t>"Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. "</t>
-  </si>
-  <si>
-    <t>"We are constantly looking for ways to improve our business and it is thanks to feedback like yours that we have made the most impactful changes. "</t>
-  </si>
-  <si>
-    <t>"We are thankful for your kind words and encouragement. "</t>
-  </si>
-  <si>
-    <t>"We are glad we were able to serve you! "</t>
-  </si>
-  <si>
-    <t>"Please let us know when you are coming again. "</t>
-  </si>
-  <si>
-    <t>"We take your concerns seriously and we are working on ways to make sure everything we do is customer-centric. "</t>
-  </si>
-  <si>
-    <t>"We have forwarded your concerns as well as congratulatory words to every manager involved. "</t>
-  </si>
-  <si>
-    <t>"Please give us another chance to show you what we are capable of doing. "</t>
-  </si>
-  <si>
-    <t>"Do let us make amends next time you visit us. "</t>
-  </si>
-  <si>
-    <t>"We want you to be delighted by what we do. "</t>
-  </si>
-  <si>
-    <t>"We want for every customer to experience our best. "</t>
-  </si>
-  <si>
-    <t>["We are thankful for your kind words and encouragement. ", "We are glad we were able to serve you! ", "Please let us know when you are coming again. ", "We take your concerns seriously and we are working on ways to make sure everything we do is customer-centric. ", "We have forwarded your concerns as well as congratulatory words to every manager involved. ", "Please give us another chance to show you what we are capable of doing. ", "Do let us make amends next time you visit us. ", "We want you to be delighted by what we do. ", "We want for every customer to experience our best. "]</t>
-  </si>
-  <si>
-    <t>"We are listening to our customers each and every time. Your feedback will help us shape what we do. "</t>
-  </si>
-  <si>
-    <t>"We realize you have many options and we are thankful you care enough to give us information that helps shape our business. "</t>
-  </si>
-  <si>
-    <t>"We will try our best to deliver a customer experience worth bragging about. "</t>
-  </si>
-  <si>
-    <t>"Your words of encouragement and appreciation are also very valuable to everyone here. "</t>
-  </si>
-  <si>
-    <t>"We hope to have the honor of your visit soon, that we may show you a new and improved customer experience. "</t>
-  </si>
-  <si>
-    <t>"We can't wait to have the opportunity of doing business with you once again. "</t>
-  </si>
-  <si>
-    <t>"Know that you are valuable to us and we take your feedback seriously. "</t>
-  </si>
-  <si>
-    <t>"Please let us have another chance to prove ourselves. "</t>
-  </si>
-  <si>
-    <t>"Your feedback is helping us shape our business into something we are proud of owning. "</t>
-  </si>
-  <si>
-    <t>["We are listening to our customers each and every time. Your feedback will help us shape what we do. ", "We realize you have many options and we are thankful you care enough to give us information that helps shape our business. ", "We will try our best to deliver a customer experience worth bragging about. ", "Your words of encouragement and appreciation are also very valuable to everyone here. ", "We hope to have the honor of your visit soon, that we may show you a new and improved customer experience. ", "We can't wait to have the opportunity of doing business with you once again. ", "We can't wait to have the opportunity of doing business with you once again. ", "Know that you are valuable to us and we take your feedback seriously. ", "Please let us have another chance to prove ourselves. ", "Your feedback is helping us shape our business into something we are proud of owning. "]</t>
-  </si>
-  <si>
-    <t>"We hope to see you soon and we are confident your experience will be worthy of a five star review. If you have further suggestions, please contact me at "</t>
-  </si>
-  <si>
-    <t>"If I can help you in any way please reach out to me via email at "</t>
-  </si>
-  <si>
-    <t>"In the interim please contact me if I can further assist you. My email is: "</t>
-  </si>
-  <si>
-    <t>"Do visit us once again. It will be our pleasure to serve you. In the meantime, please don't hesitate to reach out to me at "</t>
-  </si>
-  <si>
-    <t>"Your friendship and patronage is very important to us, and further comments can be emailed to me at "</t>
-  </si>
-  <si>
-    <t>"Know that we will do everything in our power to truly earn your business and your loyalty, and further suggestions can be sent to us at "</t>
-  </si>
-  <si>
-    <t>"Thanks again for giving us the opportunity to serve you. Please send any additional feedback to us at "</t>
-  </si>
-  <si>
-    <t>"We promise to delight you and yours by trying our very best. Specific suggestions are welcome at "</t>
-  </si>
-  <si>
-    <t>"We are thankful for your business and look forward to your next visit. In the meantime, please reach out with any further feedback at "</t>
-  </si>
-  <si>
-    <t>["We hope to see you soon and we are confident your experience will be worthy of a five star review. If you have further suggestions, please contact me at ", "If I can help you in any way please reach out to me via email at ", "In the interim please contact me if I can further assist you. My email is: ", "Do visit us once again. It will be our pleasure to serve you. In the meantime, please don't hesitate to reach out to me at ", "Your friendship and patronage is very important to us, and further comments can be emailed to me at ", "Know that we will do everything in our power to truly earn your business and your loyalty, and further suggestions can be sent to us at ", "Thanks again for giving us the opportunity to serve you. Please send anyadditional feedback to us at ", "We promise to delight you and yours by trying our very best. Specific suggestions are welcome at ", "We are thankful for your business and look forward to your next visit. In the meantime, please reach out with any further feedback at "]</t>
-  </si>
-  <si>
-    <t>"With gratitude,"</t>
-  </si>
-  <si>
-    <t>["With gratitude,", "Respectfully,", "At your service,", "Kindly,", "Yours,", "On behalf of our team,", "Kind Regards,", "With gratitude,"]</t>
-  </si>
-  <si>
-    <t>"We remain committed to you. Please email me at "</t>
-  </si>
-  <si>
-    <t>["Please allow us an opportunity to make amends and extend our most sincere apologies. You can contact me directly at  ", "We hope you give us a second chance. Rest assured we won't dissapoint. At your leisure please reach out to us at   ", "We are looking into this issue and hope to resolve it promptly and accurately. ", "We want your business and will do whatever it takes to earn it back. You have our promise. ", "Would you please reach out to me at your leisure via email at ","If you need to contact me to discuss further please reach out to me via email at ", "I can be reached via email at ", "I would like to tackle any issues or concerns that remain unresolved. Please feel free to reach me at ", "We can't fix the past but you have my personal commitment to find ways to improve the way our staff services each and every customer. Please contact me personally via email at ", "Please receive my personal apologies and my invitation to join us. If you have a moment please contact me via email at ", "Thank you for providing honest feedback. Knowing where we are missing the mark helps us tackle our weaknesses as we strive to be better every single day. I am available to discuss this matter at your leisure. Please contact me via email at ", "We know apologies don't fix the past. Please give us a second opportunity to show you what we are truly made of. Please contact me via email at ", "When you have a free moment kindly reach out to me via email at ", "We want you to be satisfied with your transaction. Please contact me at ", "When you have a free moment kindly reach out to me via email at ", " I am ready to help you at any time. You can reach me via phone or by email at ", "We remain committed to you. Please email me at "]</t>
-  </si>
-  <si>
-    <t>"Everyone in our company is committed to the highest levels of quality. "</t>
-  </si>
-  <si>
-    <t>"While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. "</t>
-  </si>
-  <si>
-    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is committed to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", ]</t>
-  </si>
-  <si>
-    <t>"Committed to excellence in service,"</t>
-  </si>
-  <si>
-    <t>["I look forward to chatting with you and finding a way to resolve your issue.", "Yours,", "Respectfully yours,", "Kindly,", "Looking forward to your call,", "Kindest Regards,", "At your service,", "With my most sincere apologies,", "Sincerely yours,", "Committed to excellence in service,","Respectfully at your service,", "Thanks again for your honest feedback,", "Kind Regards,", "On behalf of our team,"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1324,19 +1335,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1344,32 +1348,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1395,1656 +1373,1640 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1595">
+  <cellStyleXfs count="1609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1595">
+  <cellStyles count="1609">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3842,6 +3804,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4639,6 +4608,13 @@
     <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4970,11 +4946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -4989,48 +4965,48 @@
     <col min="11" max="11" width="4.83203125" style="5" customWidth="1"/>
     <col min="12" max="12" width="106.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.83203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="104.83203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="104.83203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="37.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="33.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="33.5" style="5" customWidth="1"/>
     <col min="19" max="19" width="4.83203125" style="5" customWidth="1"/>
     <col min="20" max="16384" width="13.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="32">
+    <row r="2" spans="1:19" ht="30">
       <c r="A2" s="5" t="s">
         <v>93</v>
       </c>
@@ -5070,17 +5046,17 @@
       <c r="M2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -5121,7 +5097,7 @@
       <c r="M3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
@@ -5130,7 +5106,7 @@
       <c r="Q3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="5" t="s">
@@ -5171,7 +5147,7 @@
       <c r="M4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>181</v>
       </c>
       <c r="O4" s="5" t="s">
@@ -5180,7 +5156,7 @@
       <c r="Q4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="S4" s="5" t="s">
@@ -5221,7 +5197,7 @@
       <c r="M5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>182</v>
       </c>
       <c r="O5" s="5" t="s">
@@ -5230,7 +5206,7 @@
       <c r="Q5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>196</v>
       </c>
       <c r="S5" s="5" t="s">
@@ -5271,7 +5247,7 @@
       <c r="M6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>183</v>
       </c>
       <c r="O6" s="5" t="s">
@@ -5280,7 +5256,7 @@
       <c r="Q6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>197</v>
       </c>
       <c r="S6" s="5" t="s">
@@ -5291,7 +5267,7 @@
       <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -5321,7 +5297,7 @@
       <c r="M7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>231</v>
       </c>
       <c r="O7" s="5" t="s">
@@ -5330,24 +5306,24 @@
       <c r="Q7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="5" t="s">
         <v>198</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="32">
+    <row r="8" spans="1:19" ht="30">
       <c r="C8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>137</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -5371,7 +5347,7 @@
       <c r="M8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>184</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -5380,7 +5356,7 @@
       <c r="Q8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>199</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -5391,7 +5367,7 @@
       <c r="C9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -5421,7 +5397,7 @@
       <c r="M9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>185</v>
       </c>
       <c r="O9" s="5" t="s">
@@ -5430,18 +5406,18 @@
       <c r="Q9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="32">
+    <row r="10" spans="1:19">
       <c r="C10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="2" t="s">
         <v>208</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -5471,7 +5447,7 @@
       <c r="M10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>186</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -5480,18 +5456,18 @@
       <c r="Q10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>200</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="32">
+    <row r="11" spans="1:19" ht="30">
       <c r="C11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5516,12 +5492,12 @@
         <v>214</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>187</v>
       </c>
       <c r="O11" s="5" t="s">
@@ -5530,7 +5506,7 @@
       <c r="Q11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>201</v>
       </c>
       <c r="S11" s="5" t="s">
@@ -5541,7 +5517,7 @@
       <c r="C12" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5571,7 +5547,7 @@
       <c r="M12" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>188</v>
       </c>
       <c r="O12" s="5" t="s">
@@ -5580,7 +5556,7 @@
       <c r="Q12" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="5" t="s">
@@ -5591,7 +5567,7 @@
       <c r="C13" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -5618,7 +5594,7 @@
       <c r="M13" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>189</v>
       </c>
       <c r="O13" s="5" t="s">
@@ -5627,7 +5603,7 @@
       <c r="Q13" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>202</v>
       </c>
       <c r="S13" s="5" t="s">
@@ -5638,7 +5614,7 @@
       <c r="C14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -5665,7 +5641,7 @@
       <c r="M14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>182</v>
       </c>
       <c r="O14" s="5" t="s">
@@ -5674,7 +5650,7 @@
       <c r="Q14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>203</v>
       </c>
       <c r="S14" s="5" t="s">
@@ -5685,7 +5661,7 @@
       <c r="C15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -5712,7 +5688,7 @@
       <c r="M15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>190</v>
       </c>
       <c r="O15" s="5" t="s">
@@ -5721,7 +5697,7 @@
       <c r="Q15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>204</v>
       </c>
       <c r="S15" s="5" t="s">
@@ -5732,7 +5708,7 @@
       <c r="C16" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -5756,7 +5732,7 @@
       <c r="M16" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>191</v>
       </c>
       <c r="O16" s="5" t="s">
@@ -5765,18 +5741,18 @@
       <c r="Q16" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>205</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="32">
+    <row r="17" spans="1:19">
       <c r="C17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -5800,7 +5776,7 @@
       <c r="M17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="5" t="s">
         <v>192</v>
       </c>
       <c r="O17" s="5" t="s">
@@ -5809,7 +5785,7 @@
       <c r="Q17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="5" t="s">
         <v>206</v>
       </c>
       <c r="S17" s="5" t="s">
@@ -5820,7 +5796,7 @@
       <c r="C18" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -5844,7 +5820,7 @@
       <c r="M18" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>193</v>
       </c>
       <c r="O18" s="5" t="s">
@@ -5861,7 +5837,7 @@
       <c r="C19" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -5885,7 +5861,7 @@
       <c r="M19" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5" t="s">
         <v>194</v>
       </c>
       <c r="O19" s="5" t="s">
@@ -5902,7 +5878,7 @@
       <c r="C20" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -5920,7 +5896,7 @@
       <c r="M20" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5" t="s">
         <v>195</v>
       </c>
       <c r="O20" s="5" t="s">
@@ -5937,7 +5913,7 @@
       <c r="C21" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -5969,7 +5945,7 @@
       <c r="C22" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -6001,7 +5977,7 @@
       <c r="C23" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -6030,7 +6006,7 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:19" ht="255">
       <c r="D25" s="5" t="s">
@@ -6046,72 +6022,71 @@
         <v>229</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="N25" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="11" customFormat="1">
-      <c r="D27" s="11" t="s">
+      <c r="R25" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="6" customFormat="1">
+      <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P27" s="12"/>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:19">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="48">
+    <row r="29" spans="1:19" ht="45">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -6122,37 +6097,37 @@
         <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>253</v>
+      <c r="F29" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>267</v>
+      <c r="H29" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>306</v>
+      <c r="N29" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>37</v>
@@ -6160,49 +6135,49 @@
       <c r="Q29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>335</v>
+      <c r="R29" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="32">
+    <row r="30" spans="1:19" ht="30">
       <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>237</v>
+      <c r="D30" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>254</v>
+      <c r="F30" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>268</v>
+      <c r="H30" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>308</v>
+      <c r="N30" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>38</v>
@@ -6210,8 +6185,8 @@
       <c r="Q30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="6" t="s">
-        <v>336</v>
+      <c r="R30" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>38</v>
@@ -6221,38 +6196,38 @@
       <c r="C31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>238</v>
+      <c r="D31" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>255</v>
+      <c r="F31" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>269</v>
+      <c r="H31" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>309</v>
+      <c r="N31" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>39</v>
@@ -6260,49 +6235,49 @@
       <c r="Q31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>337</v>
+      <c r="R31" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="32">
+    <row r="32" spans="1:19" ht="30">
       <c r="C32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>239</v>
+      <c r="D32" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>256</v>
+      <c r="F32" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>311</v>
+      <c r="N32" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>40</v>
@@ -6310,49 +6285,49 @@
       <c r="Q32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="R32" s="5" t="s">
         <v>198</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:19" ht="32">
+    <row r="33" spans="3:19" ht="30">
       <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>240</v>
+      <c r="D33" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>257</v>
+      <c r="F33" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N33" s="6" t="s">
-        <v>313</v>
+      <c r="N33" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>41</v>
@@ -6360,8 +6335,8 @@
       <c r="Q33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R33" s="6" t="s">
-        <v>338</v>
+      <c r="R33" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>41</v>
@@ -6371,38 +6346,38 @@
       <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>241</v>
+      <c r="D34" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="17" t="s">
-        <v>314</v>
+      <c r="L34" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>315</v>
+      <c r="N34" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>42</v>
@@ -6410,7 +6385,7 @@
       <c r="Q34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="R34" s="5" t="s">
         <v>35</v>
       </c>
       <c r="S34" s="5" t="s">
@@ -6421,38 +6396,38 @@
       <c r="C35" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>242</v>
+      <c r="D35" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>273</v>
+      <c r="H35" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>211</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="L35" s="17" t="s">
-        <v>317</v>
+      <c r="L35" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>316</v>
+      <c r="N35" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>211</v>
@@ -6460,43 +6435,43 @@
       <c r="Q35" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="5" t="s">
         <v>199</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="3:19" ht="32">
+    <row r="36" spans="3:19" ht="30">
       <c r="C36" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>243</v>
+      <c r="D36" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>212</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>274</v>
+      <c r="H36" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>212</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L36" s="17" t="s">
-        <v>318</v>
+      <c r="L36" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>212</v>
@@ -6507,8 +6482,8 @@
       <c r="Q36" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="R36" s="6" t="s">
-        <v>339</v>
+      <c r="R36" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>212</v>
@@ -6518,38 +6493,38 @@
       <c r="C37" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>244</v>
+      <c r="D37" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>213</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>275</v>
+      <c r="H37" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>213</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>213</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="N37" s="13" t="s">
-        <v>320</v>
+      <c r="N37" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="O37" s="5" t="s">
         <v>213</v>
@@ -6557,49 +6532,49 @@
       <c r="Q37" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="R37" s="6" t="s">
-        <v>340</v>
+      <c r="R37" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="3:19" ht="32">
+    <row r="38" spans="3:19" ht="30">
       <c r="C38" s="5" t="s">
         <v>214</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>214</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>214</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>214</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="L38" s="17" t="s">
-        <v>321</v>
+      <c r="L38" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="N38" s="13" t="s">
-        <v>322</v>
+      <c r="N38" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>214</v>
@@ -6607,8 +6582,8 @@
       <c r="Q38" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R38" s="6" t="s">
-        <v>416</v>
+      <c r="R38" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>214</v>
@@ -6618,38 +6593,38 @@
       <c r="C39" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>246</v>
+      <c r="D39" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>215</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>215</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>215</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L39" s="17" t="s">
-        <v>323</v>
+      <c r="L39" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>325</v>
+      <c r="N39" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>215</v>
@@ -6657,49 +6632,49 @@
       <c r="Q39" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="R39" s="6" t="s">
-        <v>341</v>
+      <c r="R39" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="3:19" ht="32">
+    <row r="40" spans="3:19" ht="30">
       <c r="C40" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>247</v>
+      <c r="D40" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>264</v>
+      <c r="F40" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>216</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>216</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="L40" s="17" t="s">
-        <v>328</v>
+      <c r="L40" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N40" s="13" t="s">
-        <v>324</v>
+      <c r="N40" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>216</v>
@@ -6707,49 +6682,49 @@
       <c r="Q40" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="R40" s="6" t="s">
-        <v>342</v>
+      <c r="R40" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="3:19" ht="32">
+    <row r="41" spans="3:19" ht="30">
       <c r="C41" s="5" t="s">
         <v>217</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>265</v>
+      <c r="F41" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>217</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>217</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>217</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>327</v>
+      <c r="N41" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>217</v>
@@ -6757,49 +6732,49 @@
       <c r="Q41" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="R41" s="6" t="s">
-        <v>343</v>
+      <c r="R41" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="3:19" ht="32">
+    <row r="42" spans="3:19">
       <c r="C42" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>249</v>
+      <c r="D42" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>266</v>
+      <c r="F42" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>218</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>218</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>329</v>
+      <c r="L42" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>330</v>
+      <c r="N42" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>218</v>
@@ -6807,8 +6782,8 @@
       <c r="Q42" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R42" s="6" t="s">
-        <v>344</v>
+      <c r="R42" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>218</v>
@@ -6818,8 +6793,8 @@
       <c r="C43" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>250</v>
+      <c r="D43" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>219</v>
@@ -6828,25 +6803,25 @@
         <v>219</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>219</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L43" s="13" t="s">
-        <v>326</v>
+      <c r="L43" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>331</v>
+      <c r="N43" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="O43" s="5" t="s">
         <v>219</v>
@@ -6854,8 +6829,8 @@
       <c r="Q43" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R43" s="6" t="s">
-        <v>345</v>
+      <c r="R43" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>219</v>
@@ -6865,8 +6840,8 @@
       <c r="C44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>251</v>
+      <c r="D44" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>220</v>
@@ -6875,25 +6850,25 @@
         <v>220</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>220</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>332</v>
+      <c r="L44" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N44" s="6" t="s">
-        <v>333</v>
+      <c r="N44" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>220</v>
@@ -6901,19 +6876,19 @@
       <c r="Q44" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="R44" s="6" t="s">
-        <v>346</v>
+      <c r="R44" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="3:19" ht="32">
+    <row r="45" spans="3:19">
       <c r="C45" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>252</v>
+      <c r="D45" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>221</v>
@@ -6922,25 +6897,25 @@
         <v>221</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>221</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>411</v>
+      <c r="L45" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N45" s="6" t="s">
-        <v>334</v>
+      <c r="N45" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>221</v>
@@ -6948,8 +6923,8 @@
       <c r="Q45" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="R45" s="6" t="s">
-        <v>347</v>
+      <c r="R45" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>221</v>
@@ -6969,7 +6944,7 @@
         <v>222</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>222</v>
@@ -6983,8 +6958,8 @@
       <c r="Q46" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="R46" s="6" t="s">
-        <v>348</v>
+      <c r="R46" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>222</v>
@@ -7020,85 +6995,84 @@
       </c>
     </row>
     <row r="48" spans="3:19" ht="240">
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="11" customFormat="1">
-      <c r="D50" s="11" t="s">
+      <c r="R48" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="6" customFormat="1">
+      <c r="D50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P50" s="12"/>
-      <c r="R50" s="12" t="s">
+      <c r="R50" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:19">
+      <c r="A52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="8" t="s">
+      <c r="N52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="P52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="R52" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="32">
+    <row r="53" spans="1:19" ht="30">
       <c r="A53" s="5" t="s">
         <v>95</v>
       </c>
@@ -7109,37 +7083,37 @@
         <v>37</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N53" s="6" t="s">
-        <v>399</v>
+      <c r="N53" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>37</v>
@@ -7147,8 +7121,8 @@
       <c r="Q53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R53" s="6" t="s">
-        <v>409</v>
+      <c r="R53" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="S53" s="5" t="s">
         <v>37</v>
@@ -7159,37 +7133,37 @@
         <v>38</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>400</v>
+      <c r="N54" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>38</v>
@@ -7197,7 +7171,7 @@
       <c r="Q54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="R54" s="5" t="s">
         <v>197</v>
       </c>
       <c r="S54" s="5" t="s">
@@ -7209,37 +7183,37 @@
         <v>39</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="6" t="s">
-        <v>401</v>
+      <c r="N55" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>39</v>
@@ -7247,49 +7221,49 @@
       <c r="Q55" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R55" s="6" t="s">
+      <c r="R55" s="5" t="s">
         <v>199</v>
       </c>
       <c r="S55" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="32">
+    <row r="56" spans="1:19">
       <c r="C56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>375</v>
+      <c r="H56" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>402</v>
+      <c r="N56" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>40</v>
@@ -7297,7 +7271,7 @@
       <c r="Q56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R56" s="6" t="s">
+      <c r="R56" s="5" t="s">
         <v>198</v>
       </c>
       <c r="S56" s="5" t="s">
@@ -7308,38 +7282,38 @@
       <c r="C57" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>356</v>
+      <c r="D57" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N57" s="6" t="s">
-        <v>403</v>
+      <c r="N57" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>41</v>
@@ -7347,49 +7321,49 @@
       <c r="Q57" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R57" s="6" t="s">
-        <v>336</v>
+      <c r="R57" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="S57" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="32">
+    <row r="58" spans="1:19" ht="30">
       <c r="C58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>404</v>
+      <c r="N58" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>42</v>
@@ -7397,8 +7371,8 @@
       <c r="Q58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R58" s="6" t="s">
-        <v>346</v>
+      <c r="R58" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="S58" s="5" t="s">
         <v>42</v>
@@ -7409,37 +7383,37 @@
         <v>211</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>211</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>394</v>
+      <c r="L59" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N59" s="6" t="s">
-        <v>405</v>
+      <c r="N59" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>211</v>
@@ -7447,8 +7421,8 @@
       <c r="Q59" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>345</v>
+      <c r="R59" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="S59" s="5" t="s">
         <v>211</v>
@@ -7459,37 +7433,37 @@
         <v>212</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>212</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M60" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>406</v>
+      <c r="N60" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>212</v>
@@ -7497,49 +7471,49 @@
       <c r="Q60" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="R60" s="6" t="s">
-        <v>409</v>
+      <c r="R60" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="S60" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="32">
+    <row r="61" spans="1:19" ht="30">
       <c r="C61" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>360</v>
+      <c r="D61" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>213</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M61" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="N61" s="6" t="s">
-        <v>407</v>
+      <c r="N61" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>213</v>
@@ -7562,7 +7536,7 @@
         <v>214</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>214</v>
@@ -7571,7 +7545,7 @@
         <v>214</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M62" s="5" t="s">
         <v>214</v>
@@ -7586,84 +7560,84 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="160">
+    <row r="65" spans="1:19" ht="135">
       <c r="D65" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="N65" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="R65" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" s="11" customFormat="1" ht="15">
-      <c r="D67" s="11" t="s">
+    </row>
+    <row r="67" spans="1:19" s="6" customFormat="1">
+      <c r="D67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="R67" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:19">
+      <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="L68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N68" s="8" t="s">
+      <c r="N68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="P68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R68" s="8" t="s">
+      <c r="R68" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7707,7 +7681,7 @@
       <c r="Q69" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R69" s="6" t="s">
+      <c r="R69" s="5" t="s">
         <v>91</v>
       </c>
       <c r="S69" s="5" t="s">
@@ -7748,7 +7722,7 @@
       <c r="Q70" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R70" s="6" t="s">
+      <c r="R70" s="5" t="s">
         <v>92</v>
       </c>
       <c r="S70" s="5" t="s">
@@ -7801,61 +7775,61 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="11" customFormat="1" ht="15">
-      <c r="D75" s="11" t="s">
+    <row r="75" spans="1:19" s="6" customFormat="1">
+      <c r="D75" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L75" s="11" t="s">
+      <c r="L75" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R75" s="11" t="s">
+      <c r="R75" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:19">
+      <c r="A76" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="8" t="s">
+      <c r="L76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="8" t="s">
+      <c r="N76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P76" s="8" t="s">
+      <c r="P76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R76" s="8" t="s">
+      <c r="R76" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7899,7 +7873,7 @@
       <c r="Q77" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R77" s="6" t="s">
+      <c r="R77" s="5" t="s">
         <v>91</v>
       </c>
       <c r="S77" s="5" t="s">
@@ -7940,7 +7914,7 @@
       <c r="Q78" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R78" s="6" t="s">
+      <c r="R78" s="5" t="s">
         <v>111</v>
       </c>
       <c r="S78" s="5" t="s">
@@ -7962,65 +7936,65 @@
       <c r="H81" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="R81" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="11" customFormat="1" ht="15">
-      <c r="D88" s="11" t="s">
+    <row r="88" spans="1:19" s="6" customFormat="1">
+      <c r="D88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L88" s="11" t="s">
+      <c r="L88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:19">
+      <c r="A89" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="8" t="s">
+      <c r="L89" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="8" t="s">
+      <c r="N89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P89" s="8" t="s">
+      <c r="P89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R89" s="8" t="s">
+      <c r="R89" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8064,7 +8038,7 @@
       <c r="Q90" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R90" s="6" t="s">
+      <c r="R90" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S90" s="5" t="s">
@@ -8105,7 +8079,7 @@
       <c r="Q91" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R91" s="6" t="s">
+      <c r="R91" s="5" t="s">
         <v>91</v>
       </c>
       <c r="S91" s="5" t="s">
@@ -8122,7 +8096,7 @@
       <c r="H93" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R93" s="6" t="s">
+      <c r="R93" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8131,61 +8105,61 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="11" customFormat="1" ht="15">
-      <c r="D98" s="11" t="s">
+    <row r="98" spans="1:19" s="6" customFormat="1">
+      <c r="D98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L98" s="11" t="s">
+      <c r="L98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R98" s="11" t="s">
+      <c r="R98" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A99" s="8" t="s">
+    <row r="99" spans="1:19">
+      <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="L99" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N99" s="8" t="s">
+      <c r="N99" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P99" s="8" t="s">
+      <c r="P99" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R99" s="8" t="s">
+      <c r="R99" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8226,7 +8200,7 @@
       <c r="Q100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R100" s="6" t="s">
+      <c r="R100" s="5" t="s">
         <v>91</v>
       </c>
       <c r="S100" s="5" t="s">
@@ -8264,7 +8238,7 @@
       <c r="Q101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R101" s="6" t="s">
+      <c r="R101" s="5" t="s">
         <v>92</v>
       </c>
       <c r="S101" s="5" t="s">
@@ -8315,65 +8289,65 @@
       </c>
     </row>
     <row r="105" spans="1:19">
-      <c r="R105" s="6" t="s">
+      <c r="R105" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" ht="15">
-      <c r="D108" s="11" t="s">
+    <row r="108" spans="1:19" s="6" customFormat="1">
+      <c r="D108" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="H108" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J108" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L108" s="11" t="s">
+      <c r="L108" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R108" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="8" customFormat="1" ht="15">
-      <c r="A109" s="8" t="s">
+    <row r="109" spans="1:19">
+      <c r="A109" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J109" s="8" t="s">
+      <c r="J109" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L109" s="8" t="s">
+      <c r="L109" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N109" s="8" t="s">
+      <c r="N109" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P109" s="8" t="s">
+      <c r="P109" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R109" s="8" t="s">
+      <c r="R109" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8417,7 +8391,7 @@
       <c r="Q110" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R110" s="6" t="s">
+      <c r="R110" s="5" t="s">
         <v>91</v>
       </c>
       <c r="S110" s="5" t="s">
@@ -8458,7 +8432,7 @@
       <c r="Q111" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R111" s="6" t="s">
+      <c r="R111" s="5" t="s">
         <v>111</v>
       </c>
       <c r="S111" s="5" t="s">
@@ -8510,65 +8484,65 @@
       <c r="H114" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R114" s="6" t="s">
+      <c r="R114" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="11" customFormat="1" ht="15">
-      <c r="D120" s="11" t="s">
+    <row r="120" spans="1:18" s="6" customFormat="1">
+      <c r="D120" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L120" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="N120" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P120" s="11" t="s">
+      <c r="P120" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="R120" s="11" t="s">
+      <c r="R120" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="8" customFormat="1" ht="15">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="1:18">
+      <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="8" t="s">
+      <c r="H121" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J121" s="8" t="s">
+      <c r="J121" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L121" s="8" t="s">
+      <c r="L121" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N121" s="8" t="s">
+      <c r="N121" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P121" s="8" t="s">
+      <c r="P121" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R121" s="8" t="s">
+      <c r="R121" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8590,7 +8564,7 @@
       <c r="H126" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R126" s="6" t="s">
+      <c r="R126" s="5" t="s">
         <v>81</v>
       </c>
     </row>

--- a/RT database.xlsx
+++ b/RT database.xlsx
@@ -151,15 +151,6 @@
     <t>[5]</t>
   </si>
   <si>
-    <t>FYG Postitive</t>
-  </si>
-  <si>
-    <t>FYG Negative</t>
-  </si>
-  <si>
-    <t>FYG Neutral</t>
-  </si>
-  <si>
     <t>CLOSE []</t>
   </si>
   <si>
@@ -1259,9 +1250,6 @@
   </si>
   <si>
     <t>"While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. "</t>
-  </si>
-  <si>
-    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is committed to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", ]</t>
   </si>
   <si>
     <t>"Committed to excellence in service,"</t>
@@ -1298,19 +1286,24 @@
       <t xml:space="preserve"> "With appreciation,", "Please join us again,", "Can't wait to serve you again,", "Looking forward to your next visit,"]</t>
     </r>
   </si>
+  <si>
+    <t>Postitive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is committed to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. " ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1373,1616 +1366,1688 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1609">
+  <cellStyleXfs count="1681">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2995,7 +3060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3006,7 +3071,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1609">
+  <cellStyles count="1681">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3811,6 +3876,42 @@
     <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4615,6 +4716,42 @@
     <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4946,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5003,15 +5140,15 @@
         <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="30">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>414</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>37</v>
@@ -5023,7 +5160,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>37</v>
@@ -5074,7 +5211,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>38</v>
@@ -5124,7 +5261,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>39</v>
@@ -5148,7 +5285,7 @@
         <v>39</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>39</v>
@@ -5180,25 +5317,25 @@
         <v>40</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>40</v>
@@ -5207,7 +5344,7 @@
         <v>40</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>40</v>
@@ -5218,7 +5355,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>41</v>
@@ -5230,25 +5367,25 @@
         <v>41</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>41</v>
@@ -5257,7 +5394,7 @@
         <v>41</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>41</v>
@@ -5268,7 +5405,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>42</v>
@@ -5280,25 +5417,25 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>42</v>
@@ -5307,7 +5444,7 @@
         <v>42</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>42</v>
@@ -5315,694 +5452,694 @@
     </row>
     <row r="8" spans="1:19" ht="30">
       <c r="C8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30">
       <c r="C9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="C10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="30">
       <c r="C11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="30">
       <c r="C12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="C13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30">
       <c r="C14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="30">
       <c r="C15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="C16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="C17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="30">
       <c r="C18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="C19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="C20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="C21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="C22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="C23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -6010,48 +6147,48 @@
     </row>
     <row r="25" spans="1:19" ht="255">
       <c r="D25" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="R25" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="6" customFormat="1">
       <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -6083,51 +6220,51 @@
         <v>7</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="45">
       <c r="A29" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>415</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>37</v>
@@ -6136,7 +6273,7 @@
         <v>37</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>37</v>
@@ -6147,37 +6284,37 @@
         <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>38</v>
@@ -6186,7 +6323,7 @@
         <v>38</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>38</v>
@@ -6197,37 +6334,37 @@
         <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>39</v>
@@ -6236,7 +6373,7 @@
         <v>39</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>39</v>
@@ -6247,37 +6384,37 @@
         <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>40</v>
@@ -6286,7 +6423,7 @@
         <v>40</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>40</v>
@@ -6297,37 +6434,37 @@
         <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>41</v>
@@ -6336,7 +6473,7 @@
         <v>41</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>41</v>
@@ -6347,37 +6484,37 @@
         <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>42</v>
@@ -6394,650 +6531,650 @@
     </row>
     <row r="35" spans="3:19" ht="30">
       <c r="C35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="3:19" ht="30">
       <c r="C36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="3:19" ht="30">
       <c r="C37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="3:19" ht="30">
       <c r="C38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="3:19" ht="30">
       <c r="C39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="3:19" ht="30">
       <c r="C40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="3:19" ht="30">
       <c r="C41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="3:19">
       <c r="C42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="3:19">
       <c r="C43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="3:19">
       <c r="C44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="3:19">
       <c r="C45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="3:19">
       <c r="C46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="3:19">
       <c r="C47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="3:19" ht="240">
       <c r="D48" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="6" customFormat="1">
       <c r="D50" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -7069,51 +7206,51 @@
         <v>7</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="30">
       <c r="A53" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>37</v>
@@ -7122,7 +7259,7 @@
         <v>37</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="S53" s="5" t="s">
         <v>37</v>
@@ -7133,37 +7270,37 @@
         <v>38</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>38</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>38</v>
@@ -7172,7 +7309,7 @@
         <v>38</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S54" s="5" t="s">
         <v>38</v>
@@ -7183,37 +7320,37 @@
         <v>39</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>39</v>
@@ -7222,7 +7359,7 @@
         <v>39</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S55" s="5" t="s">
         <v>39</v>
@@ -7233,37 +7370,37 @@
         <v>40</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>40</v>
@@ -7272,7 +7409,7 @@
         <v>40</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S56" s="5" t="s">
         <v>40</v>
@@ -7283,37 +7420,37 @@
         <v>41</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>41</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>41</v>
@@ -7322,7 +7459,7 @@
         <v>41</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S57" s="5" t="s">
         <v>41</v>
@@ -7333,37 +7470,37 @@
         <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>42</v>
@@ -7372,7 +7509,7 @@
         <v>42</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S58" s="5" t="s">
         <v>42</v>
@@ -7380,233 +7517,233 @@
     </row>
     <row r="59" spans="1:19" ht="30">
       <c r="C59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="C60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="30">
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="30">
       <c r="C62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="135">
       <c r="D65" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="6" customFormat="1">
       <c r="D67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7638,33 +7775,33 @@
         <v>7</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>37</v>
@@ -7682,7 +7819,7 @@
         <v>37</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>37</v>
@@ -7693,19 +7830,19 @@
         <v>38</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>38</v>
@@ -7723,7 +7860,7 @@
         <v>38</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S70" s="5" t="s">
         <v>38</v>
@@ -7734,7 +7871,7 @@
         <v>39</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>39</v>
@@ -7763,42 +7900,42 @@
     </row>
     <row r="73" spans="1:19">
       <c r="D73" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:19" s="6" customFormat="1">
       <c r="D75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -7830,33 +7967,33 @@
         <v>7</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>37</v>
@@ -7874,7 +8011,7 @@
         <v>37</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S77" s="5" t="s">
         <v>37</v>
@@ -7885,19 +8022,19 @@
         <v>38</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>38</v>
@@ -7915,7 +8052,7 @@
         <v>38</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S78" s="5" t="s">
         <v>38</v>
@@ -7923,47 +8060,47 @@
     </row>
     <row r="79" spans="1:19">
       <c r="F79" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="D81" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:19" s="6" customFormat="1">
       <c r="D88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -7995,33 +8132,33 @@
         <v>7</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>37</v>
@@ -8050,19 +8187,19 @@
         <v>38</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>38</v>
@@ -8080,7 +8217,7 @@
         <v>38</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S91" s="5" t="s">
         <v>38</v>
@@ -8088,47 +8225,47 @@
     </row>
     <row r="93" spans="1:19">
       <c r="D93" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R93" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R93" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="105">
       <c r="A95" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="6" customFormat="1">
       <c r="D98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -8160,27 +8297,27 @@
         <v>7</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>37</v>
@@ -8201,7 +8338,7 @@
         <v>37</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S100" s="5" t="s">
         <v>37</v>
@@ -8212,13 +8349,13 @@
         <v>38</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>38</v>
@@ -8239,7 +8376,7 @@
         <v>38</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S101" s="5" t="s">
         <v>38</v>
@@ -8250,7 +8387,7 @@
         <v>39</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>39</v>
@@ -8279,44 +8416,44 @@
     </row>
     <row r="104" spans="1:19">
       <c r="D104" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:19">
       <c r="R105" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="6" customFormat="1">
       <c r="D108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -8348,33 +8485,33 @@
         <v>7</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>37</v>
@@ -8392,7 +8529,7 @@
         <v>37</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>37</v>
@@ -8403,19 +8540,19 @@
         <v>38</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>38</v>
@@ -8433,7 +8570,7 @@
         <v>38</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>38</v>
@@ -8444,13 +8581,13 @@
         <v>39</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>39</v>
@@ -8476,42 +8613,42 @@
     </row>
     <row r="114" spans="1:18">
       <c r="D114" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:18" s="6" customFormat="1">
       <c r="D120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R120" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -8543,29 +8680,29 @@
         <v>7</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:18">
       <c r="D126" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/RT database.xlsx
+++ b/RT database.xlsx
@@ -1250,6 +1250,9 @@
   </si>
   <si>
     <t>"While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. "</t>
+  </si>
+  <si>
+    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is committed to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", ]</t>
   </si>
   <si>
     <t>"Committed to excellence in service,"</t>
@@ -1294,9 +1297,6 @@
   </si>
   <si>
     <t>Neutral</t>
-  </si>
-  <si>
-    <t>["It looks like we were not up to par in some areas and for that we apologize. "," We have forwarded your concerns to the appropriate departments and will most certainly follow up. ", "Everyone here is open to finding ways to better serve our customers and we will certainly use your insights to develop better business practices. ", "Our commitment is to customer excellence every single transaction. ", "Everyone in our company is committed to the highest levels of quality. ", "We are sorry this time around we did not deliver as planned. ", "We are sorry this time around we did not deliver as planned. ", "Our goal is to deliver customer experiences worth bragging about and this time around we dropped the ball. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. ", "While your experience was not flawless, we want you to know that we are committed to the highest levels of excellence. " ]</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1366,196 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1681">
+  <cellStyleXfs count="1869">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3071,7 +3259,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1681">
+  <cellStyles count="1869">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3912,6 +4100,100 @@
     <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1868" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4752,6 +5034,100 @@
     <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1867" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5083,8 +5459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="M52" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5148,7 +5524,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>37</v>
@@ -6165,7 +6541,7 @@
         <v>229</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="6" customFormat="1">
@@ -6228,7 +6604,7 @@
         <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>37</v>
@@ -6720,7 +7096,7 @@
         <v>211</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>211</v>
@@ -7151,7 +7527,7 @@
         <v>346</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="6" customFormat="1">
@@ -7214,7 +7590,7 @@
         <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>37</v>
@@ -7705,7 +8081,7 @@
         <v>366</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>384</v>
@@ -7714,7 +8090,7 @@
         <v>394</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R65" s="5" t="s">
         <v>405</v>
